--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_21_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_21_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3986019.350321571</v>
+        <v>-3986686.037423946</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>394074.1703819047</v>
+        <v>394074.1703819046</v>
       </c>
     </row>
     <row r="8">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="C11" t="n">
-        <v>37.60162327004173</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36.2191008672286</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>73.82072413727036</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.3479651593436</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1491,16 +1491,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>61.11457760632489</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>83.81099470625612</v>
+        <v>10.62223208240261</v>
       </c>
       <c r="U12" t="n">
         <v>32.90513957632344</v>
@@ -1509,7 +1509,7 @@
         <v>36.32641845505592</v>
       </c>
       <c r="W12" t="n">
-        <v>83.81099470625612</v>
+        <v>62.38208111666526</v>
       </c>
       <c r="X12" t="n">
         <v>12.99041197912427</v>
@@ -1582,13 +1582,13 @@
         <v>19.41578159860735</v>
       </c>
       <c r="U13" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="V13" t="n">
         <v>40.78651272410357</v>
       </c>
       <c r="W13" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="X13" t="n">
         <v>17.5969529478962</v>
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>55.73050377828599</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>18.09022035898431</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>45.82706754482444</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>27.99365659244593</v>
       </c>
       <c r="X14" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>28.31505226771332</v>
+        <v>34.35512132792029</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.8613090122909</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.040069060206879</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.62223208240261</v>
+        <v>10.62223208240258</v>
       </c>
       <c r="U15" t="n">
-        <v>32.90513957632344</v>
+        <v>32.90513957632341</v>
       </c>
       <c r="V15" t="n">
-        <v>36.32641845505592</v>
+        <v>36.32641845505589</v>
       </c>
       <c r="W15" t="n">
-        <v>62.38208111666526</v>
+        <v>62.38208111666523</v>
       </c>
       <c r="X15" t="n">
-        <v>12.99041197912427</v>
+        <v>12.99041197912425</v>
       </c>
       <c r="Y15" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.02061210103634</v>
+        <v>31.02061210103631</v>
       </c>
       <c r="T16" t="n">
-        <v>19.41578159860735</v>
+        <v>19.41578159860732</v>
       </c>
       <c r="U16" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="V16" t="n">
-        <v>40.78651272410357</v>
+        <v>40.78651272410355</v>
       </c>
       <c r="W16" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5969529478962</v>
+        <v>17.59695294789617</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.81877035382209</v>
+        <v>12.81877035382206</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.178747947098282</v>
+        <v>2.178747947097975</v>
       </c>
       <c r="X17" t="n">
         <v>24.06499841603721</v>
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="D18" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="E18" t="n">
-        <v>21.9594151249795</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>21.95941512497946</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.8613090122909</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.36952449916441</v>
+        <v>38.36952449916525</v>
       </c>
       <c r="C20" t="n">
         <v>14.4877815025099</v>
@@ -2093,7 +2093,7 @@
         <v>67.48153376134456</v>
       </c>
       <c r="G20" t="n">
-        <v>83.10831349049279</v>
+        <v>83.10831349049278</v>
       </c>
       <c r="H20" t="n">
         <v>11.17931715308464</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>73.82072413727042</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="Y21" t="n">
-        <v>83.81099470625612</v>
+        <v>73.82072413727037</v>
       </c>
     </row>
     <row r="22">
@@ -2330,7 +2330,7 @@
         <v>67.48153376134456</v>
       </c>
       <c r="G23" t="n">
-        <v>83.10831349049278</v>
+        <v>83.10831349049279</v>
       </c>
       <c r="H23" t="n">
         <v>11.17931715308464</v>
@@ -2397,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>73.82072413727036</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="F24" t="n">
-        <v>83.81099470625603</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>83.81099470625603</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>73.82072413727028</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>83.81099470625603</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>190.3568429661005</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9836226952487</v>
+        <v>205.9836226952488</v>
       </c>
       <c r="H26" t="n">
         <v>134.0546263578406</v>
@@ -2606,7 +2606,7 @@
         <v>14.39786574795403</v>
       </c>
       <c r="T26" t="n">
-        <v>9.570316145417678</v>
+        <v>9.570316145417683</v>
       </c>
       <c r="U26" t="n">
         <v>37.30716333125784</v>
@@ -2631,31 +2631,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>110.9658680051383</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>10.55786698525679</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.1397061627909</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>53.86217690309863</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>4.470507765557642</v>
       </c>
       <c r="Y27" t="n">
         <v>10.54187946011265</v>
@@ -2804,7 +2804,7 @@
         <v>190.3568429661005</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9836226952487</v>
+        <v>205.9836226952488</v>
       </c>
       <c r="H29" t="n">
         <v>134.0546263578406</v>
@@ -2843,7 +2843,7 @@
         <v>14.39786574795403</v>
       </c>
       <c r="T29" t="n">
-        <v>9.570316145417678</v>
+        <v>9.570316145417683</v>
       </c>
       <c r="U29" t="n">
         <v>37.30716333125784</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6727734256474</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,13 +2913,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>79.63516411660844</v>
       </c>
       <c r="S30" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>2.102327868835979</v>
@@ -2931,13 +2931,13 @@
         <v>27.80651424148928</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.86217690309863</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.470507765557642</v>
       </c>
       <c r="Y30" t="n">
-        <v>28.26212246933181</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -3047,7 +3047,7 @@
         <v>134.0546263578406</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69919665366198</v>
+        <v>27.69919665366199</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>138.9782553235036</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>148.7381070793004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>72.85338399482589</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.1397061627909</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>24.3852353627568</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80651424148928</v>
       </c>
       <c r="W33" t="n">
         <v>53.86217690309863</v>
@@ -3351,16 +3351,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>115.1865492618971</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.6727734256474</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.040069060206879</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>69.76600819355195</v>
+        <v>1.209425642551663</v>
       </c>
       <c r="V36" t="n">
         <v>4.630704521284144</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>30.68636718289349</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.0690239837152</v>
+        <v>138.0690239837153</v>
       </c>
       <c r="C38" t="n">
-        <v>114.1872809870607</v>
+        <v>114.1872809870608</v>
       </c>
       <c r="D38" t="n">
-        <v>101.7539432481092</v>
+        <v>101.7539432481093</v>
       </c>
       <c r="E38" t="n">
         <v>135.4606956675181</v>
       </c>
       <c r="F38" t="n">
-        <v>167.1810332458954</v>
+        <v>167.1810332458955</v>
       </c>
       <c r="G38" t="n">
-        <v>182.8078129750436</v>
+        <v>182.8078129750437</v>
       </c>
       <c r="H38" t="n">
         <v>110.8788166376355</v>
       </c>
       <c r="I38" t="n">
-        <v>4.523386933456834</v>
+        <v>4.523386933456919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.1313536110527</v>
+        <v>14.13135361105279</v>
       </c>
       <c r="V38" t="n">
-        <v>84.86156721503392</v>
+        <v>84.861567215034</v>
       </c>
       <c r="W38" t="n">
-        <v>101.8782474316488</v>
+        <v>101.8782474316489</v>
       </c>
       <c r="X38" t="n">
-        <v>123.764497900588</v>
+        <v>123.7644979005881</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.2673510243318</v>
+        <v>146.2673510243319</v>
       </c>
     </row>
     <row r="39">
@@ -3585,22 +3585,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7381070793004</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>97.37758729553181</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.040069060206879</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276420366697</v>
+        <v>1.209425642551748</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>4.63070452128423</v>
       </c>
       <c r="W39" t="n">
-        <v>30.68636718289349</v>
+        <v>30.68636718289358</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>94.70269673597326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.63804345455768</v>
+        <v>52.63804345455777</v>
       </c>
       <c r="V40" t="n">
-        <v>9.090798790331803</v>
+        <v>9.090798790331888</v>
       </c>
       <c r="W40" t="n">
-        <v>54.29249069521723</v>
+        <v>54.29249069521731</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>101.7539432481092</v>
       </c>
       <c r="E41" t="n">
-        <v>135.460695667518</v>
+        <v>135.4606956675181</v>
       </c>
       <c r="F41" t="n">
-        <v>167.1810332458953</v>
+        <v>167.1810332458954</v>
       </c>
       <c r="G41" t="n">
         <v>182.8078129750436</v>
       </c>
       <c r="H41" t="n">
-        <v>110.8788166376354</v>
+        <v>110.8788166376355</v>
       </c>
       <c r="I41" t="n">
-        <v>4.523386933456806</v>
+        <v>4.523386933456834</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.13135361105267</v>
+        <v>14.1313536110527</v>
       </c>
       <c r="V41" t="n">
-        <v>84.86156721503389</v>
+        <v>84.86156721503392</v>
       </c>
       <c r="W41" t="n">
         <v>101.8782474316488</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7381070793004</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.47010505155</v>
+        <v>142.3411667126895</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.209425642551635</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>30.68636718289346</v>
+        <v>30.68636718289349</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>38.15117097595745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.63804345455765</v>
+        <v>52.63804345455768</v>
       </c>
       <c r="V43" t="n">
-        <v>9.090798790331775</v>
+        <v>9.090798790331803</v>
       </c>
       <c r="W43" t="n">
-        <v>54.2924906952172</v>
+        <v>54.29249069521723</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3983,19 +3983,19 @@
         <v>101.7539432481092</v>
       </c>
       <c r="E44" t="n">
-        <v>135.460695667518</v>
+        <v>135.4606956675181</v>
       </c>
       <c r="F44" t="n">
-        <v>167.1810332458953</v>
+        <v>167.1810332458954</v>
       </c>
       <c r="G44" t="n">
         <v>182.8078129750436</v>
       </c>
       <c r="H44" t="n">
-        <v>110.8788166376354</v>
+        <v>110.8788166376355</v>
       </c>
       <c r="I44" t="n">
-        <v>4.523386933456806</v>
+        <v>4.523386933456834</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.13135361105267</v>
+        <v>14.1313536110527</v>
       </c>
       <c r="V44" t="n">
-        <v>84.86156721503389</v>
+        <v>84.86156721503392</v>
       </c>
       <c r="W44" t="n">
         <v>101.8782474316488</v>
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>25.69409546075454</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>138.7872961655257</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7381070793004</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3163923318781</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.209425642551635</v>
+        <v>1.209425642551663</v>
       </c>
       <c r="V45" t="n">
-        <v>4.630704521284116</v>
+        <v>4.630704521284144</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>30.68636718289349</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.63804345455765</v>
+        <v>52.63804345455768</v>
       </c>
       <c r="V46" t="n">
-        <v>9.090798790331775</v>
+        <v>9.090798790331803</v>
       </c>
       <c r="W46" t="n">
-        <v>54.2924906952172</v>
+        <v>54.29249069521723</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.2439788250245</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="C11" t="n">
-        <v>297.2625411785177</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="D11" t="n">
-        <v>212.604970768158</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="E11" t="n">
-        <v>212.604970768158</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="F11" t="n">
-        <v>127.9474003577982</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="G11" t="n">
-        <v>43.28982994743851</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="H11" t="n">
-        <v>43.28982994743851</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I11" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="J11" t="n">
-        <v>6.70487957650049</v>
+        <v>89.67776433569404</v>
       </c>
       <c r="K11" t="n">
-        <v>6.70487957650049</v>
+        <v>89.67776433569404</v>
       </c>
       <c r="L11" t="n">
-        <v>55.32290868514215</v>
+        <v>138.2957934443357</v>
       </c>
       <c r="M11" t="n">
-        <v>138.2957934443357</v>
+        <v>221.2686782035292</v>
       </c>
       <c r="N11" t="n">
-        <v>221.2686782035293</v>
+        <v>298.7417149666124</v>
       </c>
       <c r="O11" t="n">
-        <v>257.5149111944305</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="P11" t="n">
-        <v>257.5149111944305</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q11" t="n">
-        <v>325.1422444635012</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R11" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="S11" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="T11" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="U11" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="V11" t="n">
-        <v>335.2439788250245</v>
+        <v>260.6775908075796</v>
       </c>
       <c r="W11" t="n">
-        <v>335.2439788250245</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="X11" t="n">
-        <v>335.2439788250245</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.2439788250245</v>
+        <v>176.0200203972199</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.70487957650049</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="C12" t="n">
-        <v>6.70487957650049</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="D12" t="n">
-        <v>6.70487957650049</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="E12" t="n">
-        <v>6.70487957650049</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="F12" t="n">
-        <v>6.70487957650049</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="G12" t="n">
-        <v>6.70487957650049</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="H12" t="n">
-        <v>6.70487957650049</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="I12" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="J12" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="K12" t="n">
-        <v>45.70690058228111</v>
+        <v>45.7069005822811</v>
       </c>
       <c r="L12" t="n">
         <v>128.6797853414747</v>
@@ -5130,40 +5130,40 @@
         <v>211.6526701006682</v>
       </c>
       <c r="N12" t="n">
-        <v>211.6526701006682</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="O12" t="n">
-        <v>294.6255548598618</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="P12" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q12" t="n">
-        <v>335.2439788250245</v>
+        <v>329.1428989662296</v>
       </c>
       <c r="R12" t="n">
-        <v>335.2439788250245</v>
+        <v>267.4110023941843</v>
       </c>
       <c r="S12" t="n">
-        <v>335.2439788250245</v>
+        <v>267.4110023941843</v>
       </c>
       <c r="T12" t="n">
-        <v>250.5864084146648</v>
+        <v>256.681475038222</v>
       </c>
       <c r="U12" t="n">
-        <v>217.3488936911058</v>
+        <v>223.443960314663</v>
       </c>
       <c r="V12" t="n">
-        <v>180.6555417163018</v>
+        <v>186.750608339859</v>
       </c>
       <c r="W12" t="n">
-        <v>95.99797130594207</v>
+        <v>123.7384051917123</v>
       </c>
       <c r="X12" t="n">
-        <v>82.87634304420038</v>
+        <v>110.6167769299706</v>
       </c>
       <c r="Y12" t="n">
-        <v>63.62201610108999</v>
+        <v>91.3624499868602</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="C13" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="D13" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="E13" t="n">
-        <v>6.70487957650049</v>
+        <v>68.72477721214061</v>
       </c>
       <c r="F13" t="n">
-        <v>6.70487957650049</v>
+        <v>132.9415536318283</v>
       </c>
       <c r="G13" t="n">
-        <v>41.97578256036267</v>
+        <v>132.9415536318283</v>
       </c>
       <c r="H13" t="n">
-        <v>49.96866887263474</v>
+        <v>132.9415536318283</v>
       </c>
       <c r="I13" t="n">
-        <v>49.96866887263474</v>
+        <v>132.9415536318283</v>
       </c>
       <c r="J13" t="n">
-        <v>49.96866887263474</v>
+        <v>132.9415536318283</v>
       </c>
       <c r="K13" t="n">
         <v>132.9415536318283</v>
@@ -5209,7 +5209,7 @@
         <v>215.9144383910219</v>
       </c>
       <c r="N13" t="n">
-        <v>215.9144383910219</v>
+        <v>298.8873231502154</v>
       </c>
       <c r="O13" t="n">
         <v>298.8873231502154</v>
@@ -5242,7 +5242,7 @@
         <v>19.65313245914906</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>147.6558881467451</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="C14" t="n">
-        <v>147.6558881467451</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="D14" t="n">
-        <v>147.6558881467451</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="E14" t="n">
-        <v>147.6558881467451</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="F14" t="n">
-        <v>91.36244998686021</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="G14" t="n">
-        <v>6.70487957650049</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="H14" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I14" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="J14" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="K14" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="L14" t="n">
         <v>55.32290868514215</v>
@@ -5288,40 +5288,40 @@
         <v>138.2957934443357</v>
       </c>
       <c r="N14" t="n">
-        <v>216.0248610749297</v>
+        <v>215.7688302074188</v>
       </c>
       <c r="O14" t="n">
-        <v>252.2710940658309</v>
+        <v>298.7417149666124</v>
       </c>
       <c r="P14" t="n">
-        <v>335.2439788250245</v>
+        <v>325.1422444635012</v>
       </c>
       <c r="Q14" t="n">
-        <v>335.2439788250245</v>
+        <v>325.1422444635012</v>
       </c>
       <c r="R14" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="S14" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="T14" t="n">
-        <v>316.9710289674645</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="U14" t="n">
-        <v>316.9710289674645</v>
+        <v>288.95401160803</v>
       </c>
       <c r="V14" t="n">
-        <v>316.9710289674645</v>
+        <v>204.2964411976704</v>
       </c>
       <c r="W14" t="n">
-        <v>316.9710289674645</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="X14" t="n">
-        <v>232.3134585571048</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="Y14" t="n">
-        <v>147.6558881467451</v>
+        <v>176.0200203972199</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.69110309165627</v>
+        <v>93.79218295045121</v>
       </c>
       <c r="C15" t="n">
-        <v>87.69110309165627</v>
+        <v>93.79218295045121</v>
       </c>
       <c r="D15" t="n">
-        <v>87.69110309165627</v>
+        <v>93.79218295045121</v>
       </c>
       <c r="E15" t="n">
-        <v>87.69110309165627</v>
+        <v>93.79218295045121</v>
       </c>
       <c r="F15" t="n">
-        <v>87.69110309165627</v>
+        <v>93.79218295045121</v>
       </c>
       <c r="G15" t="n">
-        <v>59.09004019497615</v>
+        <v>59.09004019497616</v>
       </c>
       <c r="H15" t="n">
-        <v>59.09004019497615</v>
+        <v>59.09004019497616</v>
       </c>
       <c r="I15" t="n">
-        <v>59.09004019497615</v>
+        <v>59.09004019497616</v>
       </c>
       <c r="J15" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="K15" t="n">
-        <v>6.70487957650049</v>
+        <v>45.7069005822811</v>
       </c>
       <c r="L15" t="n">
-        <v>89.67776433569405</v>
+        <v>45.7069005822811</v>
       </c>
       <c r="M15" t="n">
-        <v>172.6506490948876</v>
+        <v>128.6797853414747</v>
       </c>
       <c r="N15" t="n">
-        <v>255.6235338540812</v>
+        <v>211.6526701006682</v>
       </c>
       <c r="O15" t="n">
-        <v>335.2439788250245</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="P15" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q15" t="n">
-        <v>329.1428989662297</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R15" t="n">
-        <v>329.1428989662297</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="S15" t="n">
-        <v>329.1428989662297</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="T15" t="n">
-        <v>318.4133716102674</v>
+        <v>324.5144514690622</v>
       </c>
       <c r="U15" t="n">
-        <v>285.1758568867084</v>
+        <v>291.2769367455032</v>
       </c>
       <c r="V15" t="n">
-        <v>248.4825049119044</v>
+        <v>254.5835847706993</v>
       </c>
       <c r="W15" t="n">
-        <v>185.4703017637577</v>
+        <v>191.5713816225526</v>
       </c>
       <c r="X15" t="n">
-        <v>172.348673502016</v>
+        <v>178.4497533608109</v>
       </c>
       <c r="Y15" t="n">
-        <v>87.69110309165627</v>
+        <v>93.79218295045121</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.14340555392494</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="C16" t="n">
-        <v>33.14340555392494</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="D16" t="n">
-        <v>91.69185924146421</v>
+        <v>65.25333326403978</v>
       </c>
       <c r="E16" t="n">
-        <v>91.69185924146421</v>
+        <v>65.25333326403978</v>
       </c>
       <c r="F16" t="n">
-        <v>91.69185924146421</v>
+        <v>65.25333326403978</v>
       </c>
       <c r="G16" t="n">
-        <v>94.78048363758489</v>
+        <v>65.25333326403978</v>
       </c>
       <c r="H16" t="n">
-        <v>132.9415536318283</v>
+        <v>65.25333326403978</v>
       </c>
       <c r="I16" t="n">
-        <v>132.9415536318283</v>
+        <v>65.25333326403978</v>
       </c>
       <c r="J16" t="n">
-        <v>215.9144383910219</v>
+        <v>132.9415536318282</v>
       </c>
       <c r="K16" t="n">
-        <v>215.9144383910219</v>
+        <v>132.9415536318282</v>
       </c>
       <c r="L16" t="n">
-        <v>298.8873231502154</v>
+        <v>215.9144383910217</v>
       </c>
       <c r="M16" t="n">
-        <v>298.8873231502154</v>
+        <v>215.9144383910217</v>
       </c>
       <c r="N16" t="n">
-        <v>298.8873231502154</v>
+        <v>215.9144383910217</v>
       </c>
       <c r="O16" t="n">
-        <v>298.8873231502154</v>
+        <v>215.9144383910217</v>
       </c>
       <c r="P16" t="n">
-        <v>298.8873231502154</v>
+        <v>298.8873231502153</v>
       </c>
       <c r="Q16" t="n">
-        <v>298.8873231502154</v>
+        <v>298.8873231502153</v>
       </c>
       <c r="R16" t="n">
-        <v>298.8873231502154</v>
+        <v>298.8873231502153</v>
       </c>
       <c r="S16" t="n">
-        <v>267.553371533007</v>
+        <v>267.5533715330069</v>
       </c>
       <c r="T16" t="n">
-        <v>247.9414709283531</v>
+        <v>247.941470928353</v>
       </c>
       <c r="U16" t="n">
-        <v>163.2839005179934</v>
+        <v>163.2839005179933</v>
       </c>
       <c r="V16" t="n">
-        <v>122.0854028168787</v>
+        <v>122.0854028168786</v>
       </c>
       <c r="W16" t="n">
-        <v>37.42783240651896</v>
+        <v>37.4278324065189</v>
       </c>
       <c r="X16" t="n">
-        <v>19.65313245914906</v>
+        <v>19.65313245914903</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.9398147825186</v>
+        <v>222.9398147825187</v>
       </c>
       <c r="C17" t="n">
-        <v>208.3056920527106</v>
+        <v>208.3056920527107</v>
       </c>
       <c r="D17" t="n">
         <v>206.2304963319446</v>
@@ -5507,58 +5507,58 @@
         <v>17.99711912507084</v>
       </c>
       <c r="H17" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I17" t="n">
-        <v>84.4339472070945</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="J17" t="n">
-        <v>84.4339472070945</v>
+        <v>89.67776433569404</v>
       </c>
       <c r="K17" t="n">
-        <v>84.4339472070945</v>
+        <v>89.67776433569404</v>
       </c>
       <c r="L17" t="n">
-        <v>133.0519763157362</v>
+        <v>138.2957934443357</v>
       </c>
       <c r="M17" t="n">
-        <v>216.0248610749297</v>
+        <v>221.2686782035292</v>
       </c>
       <c r="N17" t="n">
-        <v>298.9977458341233</v>
+        <v>298.7417149666124</v>
       </c>
       <c r="O17" t="n">
-        <v>335.2439788250245</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="P17" t="n">
-        <v>335.2439788250245</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="Q17" t="n">
-        <v>335.2439788250245</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="R17" t="n">
-        <v>335.2439788250245</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="S17" t="n">
-        <v>335.2439788250245</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="T17" t="n">
-        <v>335.2439788250245</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="U17" t="n">
-        <v>335.2439788250245</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="V17" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="W17" t="n">
-        <v>333.043223322905</v>
+        <v>333.0432233229053</v>
       </c>
       <c r="X17" t="n">
-        <v>308.7351441147866</v>
+        <v>308.7351441147869</v>
       </c>
       <c r="Y17" t="n">
-        <v>261.69691023622</v>
+        <v>261.6969102362202</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.9288380043051</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="C18" t="n">
-        <v>165.9288380043051</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="D18" t="n">
-        <v>81.27126759394535</v>
+        <v>165.928838004305</v>
       </c>
       <c r="E18" t="n">
-        <v>59.09004019497615</v>
+        <v>81.27126759394531</v>
       </c>
       <c r="F18" t="n">
-        <v>59.09004019497615</v>
+        <v>59.09004019497616</v>
       </c>
       <c r="G18" t="n">
-        <v>59.09004019497615</v>
+        <v>59.09004019497616</v>
       </c>
       <c r="H18" t="n">
-        <v>59.09004019497615</v>
+        <v>59.09004019497616</v>
       </c>
       <c r="I18" t="n">
-        <v>59.09004019497615</v>
+        <v>59.09004019497616</v>
       </c>
       <c r="J18" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="K18" t="n">
-        <v>6.70487957650049</v>
+        <v>45.7069005822811</v>
       </c>
       <c r="L18" t="n">
-        <v>6.70487957650049</v>
+        <v>128.6797853414747</v>
       </c>
       <c r="M18" t="n">
-        <v>89.67776433569405</v>
+        <v>211.6526701006682</v>
       </c>
       <c r="N18" t="n">
-        <v>169.2982093066374</v>
+        <v>294.6255548598618</v>
       </c>
       <c r="O18" t="n">
-        <v>252.2710940658309</v>
+        <v>294.6255548598618</v>
       </c>
       <c r="P18" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q18" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R18" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="S18" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="T18" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="U18" t="n">
-        <v>250.5864084146648</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="V18" t="n">
-        <v>165.9288380043051</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="W18" t="n">
-        <v>165.9288380043051</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="X18" t="n">
-        <v>165.9288380043051</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Y18" t="n">
-        <v>165.9288380043051</v>
+        <v>335.2439788250244</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="C19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="D19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="E19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="F19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="G19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="H19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="J19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="K19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="L19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="M19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="N19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="O19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="P19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="R19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="S19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="T19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="U19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="V19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="W19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="X19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>222.939814782519</v>
+        <v>222.9398147825182</v>
       </c>
       <c r="C20" t="n">
-        <v>208.305692052711</v>
+        <v>208.3056920527102</v>
       </c>
       <c r="D20" t="n">
-        <v>206.2304963319449</v>
+        <v>206.2304963319442</v>
       </c>
       <c r="E20" t="n">
-        <v>170.1080759451094</v>
+        <v>170.1080759451086</v>
       </c>
       <c r="F20" t="n">
-        <v>101.9449105296097</v>
+        <v>101.944910529609</v>
       </c>
       <c r="G20" t="n">
         <v>17.99711912507083</v>
       </c>
       <c r="H20" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I20" t="n">
-        <v>6.70487957650049</v>
+        <v>6.960910444011319</v>
       </c>
       <c r="J20" t="n">
-        <v>6.70487957650049</v>
+        <v>6.960910444011319</v>
       </c>
       <c r="K20" t="n">
-        <v>6.70487957650049</v>
+        <v>6.960910444011319</v>
       </c>
       <c r="L20" t="n">
-        <v>89.67776433569405</v>
+        <v>55.57893955265298</v>
       </c>
       <c r="M20" t="n">
-        <v>172.6506490948876</v>
+        <v>138.5518243118465</v>
       </c>
       <c r="N20" t="n">
-        <v>250.1236858579708</v>
+        <v>216.0248610749297</v>
       </c>
       <c r="O20" t="n">
-        <v>286.369918848872</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="P20" t="n">
-        <v>286.369918848872</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="Q20" t="n">
-        <v>286.369918848872</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="R20" t="n">
-        <v>286.369918848872</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="S20" t="n">
-        <v>286.369918848872</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="T20" t="n">
-        <v>320.5544258782028</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="U20" t="n">
-        <v>320.5544258782028</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="V20" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="W20" t="n">
-        <v>333.0432233229054</v>
+        <v>333.0432233229053</v>
       </c>
       <c r="X20" t="n">
         <v>308.735144114787</v>
       </c>
       <c r="Y20" t="n">
-        <v>261.6969102362204</v>
+        <v>261.6969102362203</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.9288380043051</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="C21" t="n">
-        <v>165.9288380043051</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="D21" t="n">
-        <v>165.9288380043051</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="E21" t="n">
-        <v>91.36244998686021</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="F21" t="n">
-        <v>91.36244998686021</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="G21" t="n">
-        <v>6.70487957650049</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="H21" t="n">
-        <v>6.70487957650049</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="I21" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="J21" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="K21" t="n">
-        <v>45.70690058228111</v>
+        <v>45.7069005822811</v>
       </c>
       <c r="L21" t="n">
-        <v>86.32532454744381</v>
+        <v>128.6797853414747</v>
       </c>
       <c r="M21" t="n">
-        <v>169.2982093066374</v>
+        <v>169.2982093066373</v>
       </c>
       <c r="N21" t="n">
+        <v>169.2982093066373</v>
+      </c>
+      <c r="O21" t="n">
         <v>252.2710940658309</v>
       </c>
-      <c r="O21" t="n">
-        <v>335.2439788250245</v>
-      </c>
       <c r="P21" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q21" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R21" t="n">
-        <v>335.2439788250245</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="S21" t="n">
-        <v>335.2439788250245</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="T21" t="n">
-        <v>335.2439788250245</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="U21" t="n">
-        <v>250.5864084146648</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="V21" t="n">
-        <v>250.5864084146648</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="W21" t="n">
-        <v>250.5864084146648</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="X21" t="n">
-        <v>250.5864084146648</v>
+        <v>165.928838004305</v>
       </c>
       <c r="Y21" t="n">
-        <v>165.9288380043051</v>
+        <v>91.3624499868602</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="C22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="D22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="E22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="F22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="G22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="H22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="J22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="K22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="L22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="M22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="N22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="O22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="P22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="R22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="S22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="T22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="U22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="V22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="W22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="X22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500489</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>222.9398147825183</v>
+        <v>222.9398147825182</v>
       </c>
       <c r="C23" t="n">
         <v>208.3056920527102</v>
       </c>
       <c r="D23" t="n">
-        <v>206.2304963319444</v>
+        <v>206.2304963319442</v>
       </c>
       <c r="E23" t="n">
         <v>170.1080759451086</v>
@@ -5978,61 +5978,61 @@
         <v>101.944910529609</v>
       </c>
       <c r="G23" t="n">
-        <v>17.99711912507082</v>
+        <v>17.99711912507084</v>
       </c>
       <c r="H23" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I23" t="n">
-        <v>6.704879576500482</v>
+        <v>89.67776433569404</v>
       </c>
       <c r="J23" t="n">
-        <v>6.704879576500482</v>
+        <v>89.67776433569404</v>
       </c>
       <c r="K23" t="n">
-        <v>6.704879576500482</v>
+        <v>89.67776433569404</v>
       </c>
       <c r="L23" t="n">
-        <v>55.32290868514215</v>
+        <v>138.2957934443357</v>
       </c>
       <c r="M23" t="n">
-        <v>138.2957934443356</v>
+        <v>221.2686782035292</v>
       </c>
       <c r="N23" t="n">
-        <v>215.7688302074188</v>
+        <v>298.7417149666124</v>
       </c>
       <c r="O23" t="n">
-        <v>252.2710940658307</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="P23" t="n">
-        <v>252.2710940658307</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="Q23" t="n">
-        <v>335.2439788250241</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="R23" t="n">
-        <v>335.2439788250241</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="S23" t="n">
-        <v>335.2439788250241</v>
+        <v>335.2439788250238</v>
       </c>
       <c r="T23" t="n">
-        <v>335.2439788250241</v>
+        <v>335.2439788250238</v>
       </c>
       <c r="U23" t="n">
-        <v>335.2439788250241</v>
+        <v>335.2439788250238</v>
       </c>
       <c r="V23" t="n">
-        <v>335.2439788250241</v>
+        <v>335.2439788250238</v>
       </c>
       <c r="W23" t="n">
-        <v>333.0432233229047</v>
+        <v>333.0432233229046</v>
       </c>
       <c r="X23" t="n">
-        <v>308.7351441147864</v>
+        <v>308.7351441147862</v>
       </c>
       <c r="Y23" t="n">
-        <v>261.6969102362197</v>
+        <v>261.6969102362196</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.36244998686011</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="C24" t="n">
-        <v>91.36244998686011</v>
+        <v>260.6775908075796</v>
       </c>
       <c r="D24" t="n">
-        <v>91.36244998686011</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="E24" t="n">
-        <v>91.36244998686011</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="F24" t="n">
-        <v>6.704879576500482</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="G24" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="H24" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I24" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="J24" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="K24" t="n">
         <v>45.7069005822811</v>
       </c>
       <c r="L24" t="n">
-        <v>86.32532454744374</v>
+        <v>128.6797853414747</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2982093066372</v>
+        <v>128.6797853414747</v>
       </c>
       <c r="N24" t="n">
-        <v>252.2710940658307</v>
+        <v>211.6526701006682</v>
       </c>
       <c r="O24" t="n">
-        <v>252.2710940658307</v>
+        <v>294.6255548598618</v>
       </c>
       <c r="P24" t="n">
-        <v>335.2439788250241</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q24" t="n">
-        <v>335.2439788250241</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R24" t="n">
-        <v>335.2439788250241</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="S24" t="n">
-        <v>335.2439788250241</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="T24" t="n">
-        <v>335.2439788250241</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="U24" t="n">
-        <v>250.5864084146645</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="V24" t="n">
-        <v>176.0200203972198</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="W24" t="n">
-        <v>91.36244998686011</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="X24" t="n">
-        <v>91.36244998686011</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Y24" t="n">
-        <v>91.36244998686011</v>
+        <v>335.2439788250244</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="C25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="D25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="E25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="F25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="G25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="H25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="J25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="K25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="L25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="M25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="N25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="O25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="P25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="R25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="S25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="T25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="U25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="V25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="W25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="X25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.704879576500482</v>
+        <v>6.704879576500489</v>
       </c>
     </row>
     <row r="26">
@@ -6215,25 +6215,25 @@
         <v>407.5480016233341</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4837362745981</v>
+        <v>199.483736274598</v>
       </c>
       <c r="H26" t="n">
         <v>64.07502278182983</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J26" t="n">
         <v>171.8165816897311</v>
       </c>
       <c r="K26" t="n">
-        <v>377.399907595767</v>
+        <v>377.3999075957676</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7319193115825</v>
+        <v>636.7319193115831</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4187866779499</v>
+        <v>930.4187866779504</v>
       </c>
       <c r="N26" t="n">
         <v>1218.605806048207</v>
@@ -6242,16 +6242,16 @@
         <v>1465.566021646282</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.067752909547</v>
+        <v>1663.067752909548</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.265373616013</v>
+        <v>1786.265373616014</v>
       </c>
       <c r="R26" t="n">
         <v>1804.801813148968</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.25851441366</v>
+        <v>1790.258514413661</v>
       </c>
       <c r="T26" t="n">
         <v>1780.591528408188</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>148.1827716217049</v>
+        <v>541.7109545222894</v>
       </c>
       <c r="C27" t="n">
-        <v>148.1827716217049</v>
+        <v>541.7109545222894</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09603626297935</v>
+        <v>380.9308382833211</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09603626297935</v>
+        <v>207.3676344047356</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09603626297935</v>
+        <v>207.3676344047356</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09603626297935</v>
+        <v>196.7031222984156</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09603626297935</v>
+        <v>196.7031222984156</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09603626297935</v>
+        <v>88.48119688145503</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K27" t="n">
         <v>75.09805726875997</v>
@@ -6345,10 +6345,10 @@
         <v>556.8749820229665</v>
       </c>
       <c r="X27" t="n">
-        <v>337.3669876396629</v>
+        <v>552.3593176133123</v>
       </c>
       <c r="Y27" t="n">
-        <v>326.71862454864</v>
+        <v>541.7109545222894</v>
       </c>
     </row>
     <row r="28">
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09603626297935</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09603626297935</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09603626297935</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09603626297935</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09603626297935</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09603626297935</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09603626297935</v>
+        <v>70.96926741183478</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09603626297935</v>
+        <v>107.7307849001938</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09603626297935</v>
+        <v>107.7307849001938</v>
       </c>
       <c r="K28" t="n">
-        <v>117.291582534174</v>
+        <v>107.7307849001938</v>
       </c>
       <c r="L28" t="n">
-        <v>117.291582534174</v>
+        <v>107.7307849001938</v>
       </c>
       <c r="M28" t="n">
-        <v>117.291582534174</v>
+        <v>107.7307849001938</v>
       </c>
       <c r="N28" t="n">
-        <v>117.291582534174</v>
+        <v>107.7307849001938</v>
       </c>
       <c r="O28" t="n">
-        <v>117.291582534174</v>
+        <v>107.7307849001938</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7639779274415</v>
+        <v>261.2031802934612</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7639779274415</v>
+        <v>261.2031802934612</v>
       </c>
       <c r="R28" t="n">
         <v>270.7639779274415</v>
@@ -6418,16 +6418,16 @@
         <v>160.4504037382767</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8578698892494</v>
+        <v>127.8578698892495</v>
       </c>
       <c r="W28" t="n">
-        <v>49.60706138882281</v>
+        <v>49.60706138882282</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43832529354042</v>
+        <v>40.43832529354043</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>64.07502278182983</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J29" t="n">
         <v>171.8165816897311</v>
@@ -6470,7 +6470,7 @@
         <v>636.7319193115831</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4187866779505</v>
+        <v>930.4187866779504</v>
       </c>
       <c r="N29" t="n">
         <v>1218.605806048207</v>
@@ -6482,7 +6482,7 @@
         <v>1663.067752909548</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.265373616013</v>
+        <v>1786.265373616014</v>
       </c>
       <c r="R29" t="n">
         <v>1804.801813148968</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.09603626297935</v>
+        <v>375.8511085436528</v>
       </c>
       <c r="C30" t="n">
-        <v>36.09603626297935</v>
+        <v>375.8511085436528</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09603626297935</v>
+        <v>375.8511085436528</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09603626297935</v>
+        <v>375.8511085436528</v>
       </c>
       <c r="F30" t="n">
-        <v>36.09603626297935</v>
+        <v>215.4233922608969</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09603626297935</v>
+        <v>215.4233922608969</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09603626297935</v>
+        <v>88.48119688145503</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09603626297935</v>
+        <v>88.48119688145503</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K30" t="n">
         <v>75.09805726875997</v>
@@ -6561,31 +6561,31 @@
         <v>801.796847384642</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.796847384642</v>
+        <v>795.6957675258471</v>
       </c>
       <c r="R30" t="n">
-        <v>801.796847384642</v>
+        <v>715.2562078121013</v>
       </c>
       <c r="S30" t="n">
-        <v>608.3927008679249</v>
+        <v>715.2562078121013</v>
       </c>
       <c r="T30" t="n">
-        <v>606.2691373640502</v>
+        <v>713.1326443082265</v>
       </c>
       <c r="U30" t="n">
-        <v>581.6375864925786</v>
+        <v>688.501093436755</v>
       </c>
       <c r="V30" t="n">
-        <v>553.5501983698622</v>
+        <v>660.4137053140386</v>
       </c>
       <c r="W30" t="n">
-        <v>284.1516291001535</v>
+        <v>606.0074660179794</v>
       </c>
       <c r="X30" t="n">
-        <v>64.64363471684987</v>
+        <v>601.4918016083252</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.09603626297935</v>
+        <v>375.8511085436528</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0791951219496</v>
+        <v>82.69181142865374</v>
       </c>
       <c r="I31" t="n">
-        <v>103.0791951219496</v>
+        <v>82.69181142865374</v>
       </c>
       <c r="J31" t="n">
-        <v>103.0791951219496</v>
+        <v>82.69181142865374</v>
       </c>
       <c r="K31" t="n">
-        <v>103.0791951219496</v>
+        <v>82.69181142865374</v>
       </c>
       <c r="L31" t="n">
-        <v>270.7639779274415</v>
+        <v>82.69181142865374</v>
       </c>
       <c r="M31" t="n">
-        <v>270.7639779274415</v>
+        <v>82.69181142865374</v>
       </c>
       <c r="N31" t="n">
-        <v>270.7639779274415</v>
+        <v>82.69181142865374</v>
       </c>
       <c r="O31" t="n">
-        <v>270.7639779274415</v>
+        <v>257.0639361857738</v>
       </c>
       <c r="P31" t="n">
         <v>270.7639779274415</v>
@@ -6655,16 +6655,16 @@
         <v>160.4504037382767</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8578698892494</v>
+        <v>127.8578698892495</v>
       </c>
       <c r="W31" t="n">
-        <v>49.60706138882281</v>
+        <v>49.60706138882282</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43832529354042</v>
+        <v>40.43832529354043</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
     </row>
     <row r="32">
@@ -6680,31 +6680,31 @@
         <v>886.2582049790296</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0665353140657</v>
+        <v>760.0665353140656</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8276409830322</v>
+        <v>599.8276409830321</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5480016233347</v>
+        <v>407.5480016233345</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4837362745986</v>
+        <v>199.4837362745984</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07502278183028</v>
+        <v>64.07502278182986</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8165816897309</v>
+        <v>171.8165816897314</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3999075957674</v>
+        <v>377.3999075957681</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7319193115829</v>
+        <v>636.7319193115836</v>
       </c>
       <c r="M32" t="n">
         <v>930.4187866779507</v>
@@ -6731,7 +6731,7 @@
         <v>1780.591528408188</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.907525043281</v>
+        <v>1742.907525043282</v>
       </c>
       <c r="V32" t="n">
         <v>1633.778861472333</v>
@@ -6740,7 +6740,7 @@
         <v>1507.461632026016</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.037078873699</v>
+        <v>1359.0370788737</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.882371050935</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>326.71862454864</v>
+        <v>541.7109545222894</v>
       </c>
       <c r="C33" t="n">
-        <v>326.71862454864</v>
+        <v>541.7109545222894</v>
       </c>
       <c r="D33" t="n">
-        <v>186.3365484642929</v>
+        <v>541.7109545222894</v>
       </c>
       <c r="E33" t="n">
-        <v>186.3365484642929</v>
+        <v>368.1477506437038</v>
       </c>
       <c r="F33" t="n">
-        <v>186.3365484642929</v>
+        <v>368.1477506437038</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09603626297935</v>
+        <v>217.9072384423903</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09603626297935</v>
+        <v>144.3179616799399</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K33" t="n">
         <v>75.09805726875997</v>
@@ -6813,16 +6813,16 @@
         <v>639.3686094417421</v>
       </c>
       <c r="V33" t="n">
-        <v>396.2888913453762</v>
+        <v>611.2812213190257</v>
       </c>
       <c r="W33" t="n">
-        <v>341.882652049317</v>
+        <v>556.8749820229665</v>
       </c>
       <c r="X33" t="n">
-        <v>337.3669876396629</v>
+        <v>552.3593176133123</v>
       </c>
       <c r="Y33" t="n">
-        <v>326.71862454864</v>
+        <v>541.7109545222894</v>
       </c>
     </row>
     <row r="34">
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09603626297935</v>
+        <v>39.05872289757518</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09603626297935</v>
+        <v>106.0418817565454</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09603626297935</v>
+        <v>176.4964845636165</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09603626297935</v>
+        <v>176.4964845636165</v>
       </c>
       <c r="G34" t="n">
-        <v>79.8016444182725</v>
+        <v>176.4964845636165</v>
       </c>
       <c r="H34" t="n">
-        <v>79.8016444182725</v>
+        <v>223.0922597292909</v>
       </c>
       <c r="I34" t="n">
-        <v>79.8016444182725</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="J34" t="n">
-        <v>79.8016444182725</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="K34" t="n">
-        <v>79.8016444182725</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="L34" t="n">
-        <v>259.4870802216419</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="M34" t="n">
-        <v>259.4870802216419</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="N34" t="n">
-        <v>259.4870802216419</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="O34" t="n">
         <v>270.7639779274415</v>
@@ -6892,16 +6892,16 @@
         <v>160.4504037382767</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8578698892494</v>
+        <v>127.8578698892495</v>
       </c>
       <c r="W34" t="n">
-        <v>49.60706138882281</v>
+        <v>49.60706138882282</v>
       </c>
       <c r="X34" t="n">
-        <v>40.43832529354042</v>
+        <v>40.43832529354043</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>854.4345604185182</v>
+        <v>854.4345604185187</v>
       </c>
       <c r="C35" t="n">
-        <v>739.0938725528001</v>
+        <v>739.0938725528006</v>
       </c>
       <c r="D35" t="n">
-        <v>636.3121116961241</v>
+        <v>636.3121116961246</v>
       </c>
       <c r="E35" t="n">
-        <v>499.4831261733787</v>
+        <v>499.4831261733791</v>
       </c>
       <c r="F35" t="n">
-        <v>330.6133956219691</v>
+        <v>330.6133956219696</v>
       </c>
       <c r="G35" t="n">
-        <v>145.959039081521</v>
+        <v>145.9590390815215</v>
       </c>
       <c r="H35" t="n">
         <v>33.96023439704133</v>
@@ -6935,52 +6935,52 @@
         <v>29.39115668647887</v>
       </c>
       <c r="J35" t="n">
-        <v>188.0557537362337</v>
+        <v>93.04599846833067</v>
       </c>
       <c r="K35" t="n">
-        <v>188.0557537362337</v>
+        <v>93.04599846833067</v>
       </c>
       <c r="L35" t="n">
-        <v>470.3318170750523</v>
+        <v>141.6640275769723</v>
       </c>
       <c r="M35" t="n">
-        <v>617.9060575348508</v>
+        <v>458.2949465663428</v>
       </c>
       <c r="N35" t="n">
-        <v>929.0371285281109</v>
+        <v>769.4260175596029</v>
       </c>
       <c r="O35" t="n">
-        <v>1198.941395749189</v>
+        <v>1039.330284780681</v>
       </c>
       <c r="P35" t="n">
-        <v>1419.387178635458</v>
+        <v>1259.77606766695</v>
       </c>
       <c r="Q35" t="n">
-        <v>1419.387178635458</v>
+        <v>1405.917739996418</v>
       </c>
       <c r="R35" t="n">
-        <v>1460.867669791415</v>
+        <v>1447.398231152376</v>
       </c>
       <c r="S35" t="n">
-        <v>1469.557834323943</v>
+        <v>1456.088395684904</v>
       </c>
       <c r="T35" t="n">
-        <v>1469.557834323943</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="U35" t="n">
-        <v>1455.283739767324</v>
+        <v>1455.283739767325</v>
       </c>
       <c r="V35" t="n">
-        <v>1369.564985004663</v>
+        <v>1369.564985004664</v>
       </c>
       <c r="W35" t="n">
-        <v>1266.657664366634</v>
+        <v>1266.657664366635</v>
       </c>
       <c r="X35" t="n">
-        <v>1141.643020022606</v>
+        <v>1141.643020022607</v>
       </c>
       <c r="Y35" t="n">
-        <v>993.8982210081296</v>
+        <v>993.89822100813</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>218.8034309535151</v>
+        <v>622.5233923752049</v>
       </c>
       <c r="C36" t="n">
-        <v>29.39115668647887</v>
+        <v>433.1111181081686</v>
       </c>
       <c r="D36" t="n">
-        <v>29.39115668647887</v>
+        <v>433.1111181081686</v>
       </c>
       <c r="E36" t="n">
-        <v>29.39115668647887</v>
+        <v>316.7610683486766</v>
       </c>
       <c r="F36" t="n">
-        <v>29.39115668647887</v>
+        <v>156.3333520659207</v>
       </c>
       <c r="G36" t="n">
-        <v>29.39115668647887</v>
+        <v>156.3333520659207</v>
       </c>
       <c r="H36" t="n">
         <v>29.39115668647887</v>
@@ -7035,31 +7035,31 @@
         <v>795.0919678081416</v>
       </c>
       <c r="Q36" t="n">
-        <v>788.9908879493468</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="R36" t="n">
-        <v>788.9908879493468</v>
+        <v>659.418844240588</v>
       </c>
       <c r="S36" t="n">
-        <v>788.9908879493468</v>
+        <v>659.418844240588</v>
       </c>
       <c r="T36" t="n">
-        <v>788.9908879493468</v>
+        <v>659.418844240588</v>
       </c>
       <c r="U36" t="n">
-        <v>718.5201726023246</v>
+        <v>658.1972021774045</v>
       </c>
       <c r="V36" t="n">
-        <v>713.8426932878962</v>
+        <v>653.5197228629761</v>
       </c>
       <c r="W36" t="n">
-        <v>444.4441240181875</v>
+        <v>622.5233923752049</v>
       </c>
       <c r="X36" t="n">
-        <v>444.4441240181875</v>
+        <v>622.5233923752049</v>
       </c>
       <c r="Y36" t="n">
-        <v>218.8034309535151</v>
+        <v>622.5233923752049</v>
       </c>
     </row>
     <row r="37">
@@ -7084,37 +7084,37 @@
         <v>29.39115668647887</v>
       </c>
       <c r="G37" t="n">
-        <v>29.39115668647887</v>
+        <v>96.04081646477511</v>
       </c>
       <c r="H37" t="n">
-        <v>29.39115668647887</v>
+        <v>96.04081646477511</v>
       </c>
       <c r="I37" t="n">
-        <v>29.39115668647887</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="J37" t="n">
-        <v>29.39115668647887</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="K37" t="n">
-        <v>29.39115668647887</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="L37" t="n">
-        <v>146.5844222825463</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="M37" t="n">
-        <v>146.5844222825463</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="N37" t="n">
-        <v>146.5844222825463</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="O37" t="n">
-        <v>146.5844222825463</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="P37" t="n">
-        <v>146.5844222825463</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.5844222825463</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="R37" t="n">
         <v>146.5844222825463</v>
@@ -7126,10 +7126,10 @@
         <v>146.5844222825463</v>
       </c>
       <c r="U37" t="n">
-        <v>93.41468141935667</v>
+        <v>93.41468141935668</v>
       </c>
       <c r="V37" t="n">
-        <v>84.23205637861747</v>
+        <v>84.23205637861749</v>
       </c>
       <c r="W37" t="n">
         <v>29.39115668647887</v>
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>854.434560418519</v>
+        <v>854.4345604185188</v>
       </c>
       <c r="C38" t="n">
-        <v>739.093872552801</v>
+        <v>739.0938725528008</v>
       </c>
       <c r="D38" t="n">
-        <v>636.3121116961249</v>
+        <v>636.3121116961247</v>
       </c>
       <c r="E38" t="n">
-        <v>499.4831261733792</v>
+        <v>499.4831261733788</v>
       </c>
       <c r="F38" t="n">
-        <v>330.6133956219697</v>
+        <v>330.6133956219692</v>
       </c>
       <c r="G38" t="n">
-        <v>145.9590390815217</v>
+        <v>145.959039081521</v>
       </c>
       <c r="H38" t="n">
-        <v>33.96023439704133</v>
+        <v>33.96023439704142</v>
       </c>
       <c r="I38" t="n">
         <v>29.39115668647887</v>
       </c>
       <c r="J38" t="n">
-        <v>29.39115668647887</v>
+        <v>188.0557537362336</v>
       </c>
       <c r="K38" t="n">
-        <v>29.39115668647887</v>
+        <v>416.5831312652731</v>
       </c>
       <c r="L38" t="n">
-        <v>287.8056999064409</v>
+        <v>465.2011603739148</v>
       </c>
       <c r="M38" t="n">
-        <v>604.4366188958113</v>
+        <v>781.8320793632852</v>
       </c>
       <c r="N38" t="n">
-        <v>915.5676898890714</v>
+        <v>859.3051161263684</v>
       </c>
       <c r="O38" t="n">
-        <v>1185.47195711015</v>
+        <v>1129.209383347446</v>
       </c>
       <c r="P38" t="n">
-        <v>1405.917739996418</v>
+        <v>1349.655166233715</v>
       </c>
       <c r="Q38" t="n">
         <v>1405.917739996418</v>
       </c>
       <c r="R38" t="n">
-        <v>1447.398231152375</v>
+        <v>1447.398231152376</v>
       </c>
       <c r="S38" t="n">
         <v>1456.088395684904</v>
       </c>
       <c r="T38" t="n">
-        <v>1469.557834323943</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="U38" t="n">
         <v>1455.283739767325</v>
@@ -7217,7 +7217,7 @@
         <v>1141.643020022607</v>
       </c>
       <c r="Y38" t="n">
-        <v>993.8982210081303</v>
+        <v>993.8982210081302</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>179.6316688877924</v>
+        <v>622.5233923752046</v>
       </c>
       <c r="C39" t="n">
-        <v>179.6316688877924</v>
+        <v>622.5233923752046</v>
       </c>
       <c r="D39" t="n">
-        <v>179.6316688877924</v>
+        <v>461.7432761362363</v>
       </c>
       <c r="E39" t="n">
-        <v>179.6316688877924</v>
+        <v>288.1800722576507</v>
       </c>
       <c r="F39" t="n">
-        <v>179.6316688877924</v>
+        <v>127.7523559748948</v>
       </c>
       <c r="G39" t="n">
-        <v>29.39115668647887</v>
+        <v>127.7523559748948</v>
       </c>
       <c r="H39" t="n">
-        <v>29.39115668647887</v>
+        <v>127.7523559748948</v>
       </c>
       <c r="I39" t="n">
         <v>29.39115668647887</v>
@@ -7272,31 +7272,31 @@
         <v>795.0919678081416</v>
       </c>
       <c r="Q39" t="n">
-        <v>788.9908879493468</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="R39" t="n">
-        <v>788.9908879493468</v>
+        <v>659.418844240588</v>
       </c>
       <c r="S39" t="n">
-        <v>788.9908879493468</v>
+        <v>659.418844240588</v>
       </c>
       <c r="T39" t="n">
-        <v>788.9908879493468</v>
+        <v>659.418844240588</v>
       </c>
       <c r="U39" t="n">
-        <v>549.3670071042258</v>
+        <v>658.1972021774044</v>
       </c>
       <c r="V39" t="n">
-        <v>306.2872890078598</v>
+        <v>653.5197228629759</v>
       </c>
       <c r="W39" t="n">
-        <v>275.2909585200886</v>
+        <v>622.5233923752046</v>
       </c>
       <c r="X39" t="n">
-        <v>275.2909585200886</v>
+        <v>622.5233923752046</v>
       </c>
       <c r="Y39" t="n">
-        <v>179.6316688877924</v>
+        <v>622.5233923752046</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.39115668647887</v>
+        <v>75.96865246139284</v>
       </c>
       <c r="C40" t="n">
-        <v>29.39115668647887</v>
+        <v>75.96865246139284</v>
       </c>
       <c r="D40" t="n">
-        <v>29.39115668647887</v>
+        <v>75.96865246139284</v>
       </c>
       <c r="E40" t="n">
-        <v>29.39115668647887</v>
+        <v>75.96865246139284</v>
       </c>
       <c r="F40" t="n">
-        <v>29.39115668647887</v>
+        <v>75.96865246139284</v>
       </c>
       <c r="G40" t="n">
-        <v>29.39115668647887</v>
+        <v>75.96865246139284</v>
       </c>
       <c r="H40" t="n">
-        <v>29.39115668647887</v>
+        <v>75.96865246139284</v>
       </c>
       <c r="I40" t="n">
-        <v>100.0069265076326</v>
+        <v>146.5844222825465</v>
       </c>
       <c r="J40" t="n">
-        <v>100.0069265076326</v>
+        <v>146.5844222825465</v>
       </c>
       <c r="K40" t="n">
-        <v>100.0069265076326</v>
+        <v>146.5844222825465</v>
       </c>
       <c r="L40" t="n">
-        <v>100.0069265076326</v>
+        <v>146.5844222825465</v>
       </c>
       <c r="M40" t="n">
-        <v>100.0069265076326</v>
+        <v>146.5844222825465</v>
       </c>
       <c r="N40" t="n">
-        <v>100.0069265076326</v>
+        <v>146.5844222825465</v>
       </c>
       <c r="O40" t="n">
-        <v>100.0069265076326</v>
+        <v>146.5844222825465</v>
       </c>
       <c r="P40" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825465</v>
       </c>
       <c r="Q40" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825465</v>
       </c>
       <c r="R40" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825465</v>
       </c>
       <c r="S40" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825465</v>
       </c>
       <c r="T40" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825465</v>
       </c>
       <c r="U40" t="n">
-        <v>93.41468141935667</v>
+        <v>93.41468141935685</v>
       </c>
       <c r="V40" t="n">
-        <v>84.23205637861747</v>
+        <v>84.23205637861757</v>
       </c>
       <c r="W40" t="n">
         <v>29.39115668647887</v>
       </c>
       <c r="X40" t="n">
-        <v>29.39115668647887</v>
+        <v>43.3489300624956</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.39115668647887</v>
+        <v>43.3489300624956</v>
       </c>
     </row>
     <row r="41">
@@ -7388,58 +7388,58 @@
         <v>854.4345604185185</v>
       </c>
       <c r="C41" t="n">
-        <v>739.0938725528006</v>
+        <v>739.0938725528005</v>
       </c>
       <c r="D41" t="n">
-        <v>636.3121116961246</v>
+        <v>636.3121116961245</v>
       </c>
       <c r="E41" t="n">
-        <v>499.4831261733791</v>
+        <v>499.483126173379</v>
       </c>
       <c r="F41" t="n">
-        <v>330.6133956219696</v>
+        <v>330.6133956219695</v>
       </c>
       <c r="G41" t="n">
-        <v>145.9590390815216</v>
+        <v>145.9590390815214</v>
       </c>
       <c r="H41" t="n">
-        <v>33.9602343970413</v>
+        <v>33.96023439704133</v>
       </c>
       <c r="I41" t="n">
         <v>29.39115668647887</v>
       </c>
       <c r="J41" t="n">
-        <v>29.39115668647887</v>
+        <v>188.0557537362337</v>
       </c>
       <c r="K41" t="n">
-        <v>257.9185342155185</v>
+        <v>416.5831312652733</v>
       </c>
       <c r="L41" t="n">
-        <v>540.1945975543372</v>
+        <v>698.859194604092</v>
       </c>
       <c r="M41" t="n">
-        <v>856.8255165437076</v>
+        <v>781.8320793632855</v>
       </c>
       <c r="N41" t="n">
-        <v>1167.956587536968</v>
+        <v>1092.963150356546</v>
       </c>
       <c r="O41" t="n">
-        <v>1204.202820527869</v>
+        <v>1362.867417577624</v>
       </c>
       <c r="P41" t="n">
-        <v>1268.466232199477</v>
+        <v>1362.867417577624</v>
       </c>
       <c r="Q41" t="n">
-        <v>1414.607904528946</v>
+        <v>1428.077343167986</v>
       </c>
       <c r="R41" t="n">
-        <v>1456.088395684904</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="S41" t="n">
-        <v>1456.088395684904</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="T41" t="n">
-        <v>1469.557834323943</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="U41" t="n">
         <v>1455.283739767324</v>
@@ -7451,10 +7451,10 @@
         <v>1266.657664366635</v>
       </c>
       <c r="X41" t="n">
-        <v>1141.643020022606</v>
+        <v>1141.643020022607</v>
       </c>
       <c r="Y41" t="n">
-        <v>993.8982210081299</v>
+        <v>993.89822100813</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>287.853594304753</v>
+        <v>137.6130821034394</v>
       </c>
       <c r="C42" t="n">
-        <v>287.853594304753</v>
+        <v>137.6130821034394</v>
       </c>
       <c r="D42" t="n">
-        <v>287.853594304753</v>
+        <v>137.6130821034394</v>
       </c>
       <c r="E42" t="n">
-        <v>287.853594304753</v>
+        <v>137.6130821034394</v>
       </c>
       <c r="F42" t="n">
-        <v>287.853594304753</v>
+        <v>137.6130821034394</v>
       </c>
       <c r="G42" t="n">
         <v>137.6130821034394</v>
@@ -7515,25 +7515,25 @@
         <v>795.0919678081416</v>
       </c>
       <c r="S42" t="n">
-        <v>601.6878212914245</v>
+        <v>651.3130115326976</v>
       </c>
       <c r="T42" t="n">
-        <v>601.6878212914245</v>
+        <v>651.3130115326976</v>
       </c>
       <c r="U42" t="n">
-        <v>600.466179228241</v>
+        <v>411.6891306875766</v>
       </c>
       <c r="V42" t="n">
-        <v>357.3864611318751</v>
+        <v>168.6094125912107</v>
       </c>
       <c r="W42" t="n">
-        <v>326.3901306441039</v>
+        <v>137.6130821034394</v>
       </c>
       <c r="X42" t="n">
-        <v>326.3901306441039</v>
+        <v>137.6130821034394</v>
       </c>
       <c r="Y42" t="n">
-        <v>287.853594304753</v>
+        <v>137.6130821034394</v>
       </c>
     </row>
     <row r="43">
@@ -7546,64 +7546,64 @@
         <v>29.39115668647887</v>
       </c>
       <c r="C43" t="n">
-        <v>29.39115668647887</v>
+        <v>76.3762446794607</v>
       </c>
       <c r="D43" t="n">
-        <v>29.39115668647887</v>
+        <v>76.3762446794607</v>
       </c>
       <c r="E43" t="n">
-        <v>29.39115668647887</v>
+        <v>76.3762446794607</v>
       </c>
       <c r="F43" t="n">
-        <v>29.39115668647887</v>
+        <v>76.3762446794607</v>
       </c>
       <c r="G43" t="n">
-        <v>29.39115668647887</v>
+        <v>76.3762446794607</v>
       </c>
       <c r="H43" t="n">
-        <v>29.39115668647887</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="I43" t="n">
-        <v>29.39115668647887</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="J43" t="n">
-        <v>29.39115668647887</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="K43" t="n">
-        <v>29.39115668647887</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="L43" t="n">
-        <v>29.39115668647887</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="M43" t="n">
-        <v>146.5844222825462</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="N43" t="n">
-        <v>146.5844222825462</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="O43" t="n">
-        <v>146.5844222825462</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="P43" t="n">
-        <v>146.5844222825462</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="Q43" t="n">
-        <v>146.5844222825462</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="R43" t="n">
-        <v>146.5844222825462</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="S43" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="T43" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="U43" t="n">
-        <v>93.41468141935661</v>
+        <v>93.41468141935668</v>
       </c>
       <c r="V43" t="n">
-        <v>84.23205637861744</v>
+        <v>84.23205637861749</v>
       </c>
       <c r="W43" t="n">
         <v>29.39115668647887</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>854.4345604185189</v>
+        <v>854.434560418519</v>
       </c>
       <c r="C44" t="n">
         <v>739.093872552801</v>
       </c>
       <c r="D44" t="n">
-        <v>636.3121116961252</v>
+        <v>636.3121116961249</v>
       </c>
       <c r="E44" t="n">
-        <v>499.4831261733793</v>
+        <v>499.4831261733791</v>
       </c>
       <c r="F44" t="n">
-        <v>330.6133956219698</v>
+        <v>330.6133956219696</v>
       </c>
       <c r="G44" t="n">
-        <v>145.9590390815217</v>
+        <v>145.9590390815215</v>
       </c>
       <c r="H44" t="n">
-        <v>33.9602343970413</v>
+        <v>33.96023439704133</v>
       </c>
       <c r="I44" t="n">
         <v>29.39115668647887</v>
@@ -7649,34 +7649,34 @@
         <v>188.0557537362337</v>
       </c>
       <c r="K44" t="n">
-        <v>368.1845238544643</v>
+        <v>188.0557537362337</v>
       </c>
       <c r="L44" t="n">
-        <v>650.4605871932829</v>
+        <v>375.3220618071492</v>
       </c>
       <c r="M44" t="n">
-        <v>733.4334719524765</v>
+        <v>691.9529807965197</v>
       </c>
       <c r="N44" t="n">
-        <v>1044.564542945737</v>
+        <v>1003.08405178978</v>
       </c>
       <c r="O44" t="n">
-        <v>1080.810775936638</v>
+        <v>1039.330284780681</v>
       </c>
       <c r="P44" t="n">
-        <v>1301.256558822906</v>
+        <v>1259.77606766695</v>
       </c>
       <c r="Q44" t="n">
-        <v>1447.398231152375</v>
+        <v>1405.917739996418</v>
       </c>
       <c r="R44" t="n">
-        <v>1447.398231152375</v>
+        <v>1447.398231152376</v>
       </c>
       <c r="S44" t="n">
         <v>1456.088395684904</v>
       </c>
       <c r="T44" t="n">
-        <v>1469.557834323943</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="U44" t="n">
         <v>1455.283739767325</v>
@@ -7691,7 +7691,7 @@
         <v>1141.643020022607</v>
       </c>
       <c r="Y44" t="n">
-        <v>993.8982210081302</v>
+        <v>993.8982210081303</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>205.5853006663323</v>
+        <v>532.5558228780862</v>
       </c>
       <c r="C45" t="n">
-        <v>179.6316688877924</v>
+        <v>343.1435486110499</v>
       </c>
       <c r="D45" t="n">
-        <v>179.6316688877924</v>
+        <v>202.9543605650644</v>
       </c>
       <c r="E45" t="n">
-        <v>179.6316688877924</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F45" t="n">
-        <v>179.6316688877924</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G45" t="n">
         <v>29.39115668647887</v>
@@ -7749,28 +7749,28 @@
         <v>795.0919678081416</v>
       </c>
       <c r="R45" t="n">
-        <v>659.418844240588</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="S45" t="n">
-        <v>659.418844240588</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="T45" t="n">
-        <v>659.418844240588</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="U45" t="n">
-        <v>658.1972021774045</v>
+        <v>793.8703257449581</v>
       </c>
       <c r="V45" t="n">
-        <v>653.5197228629761</v>
+        <v>789.1928464305297</v>
       </c>
       <c r="W45" t="n">
-        <v>384.1211535932674</v>
+        <v>758.1965159427585</v>
       </c>
       <c r="X45" t="n">
-        <v>384.1211535932674</v>
+        <v>758.1965159427585</v>
       </c>
       <c r="Y45" t="n">
-        <v>384.1211535932674</v>
+        <v>532.5558228780862</v>
       </c>
     </row>
     <row r="46">
@@ -7780,67 +7780,67 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.39115668647887</v>
+        <v>48.07933083062906</v>
       </c>
       <c r="C46" t="n">
-        <v>29.39115668647887</v>
+        <v>48.07933083062906</v>
       </c>
       <c r="D46" t="n">
-        <v>29.39115668647887</v>
+        <v>48.07933083062906</v>
       </c>
       <c r="E46" t="n">
-        <v>29.39115668647887</v>
+        <v>48.07933083062906</v>
       </c>
       <c r="F46" t="n">
-        <v>29.39115668647887</v>
+        <v>48.07933083062906</v>
       </c>
       <c r="G46" t="n">
-        <v>29.39115668647887</v>
+        <v>114.7289906089253</v>
       </c>
       <c r="H46" t="n">
-        <v>29.39115668647887</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="I46" t="n">
-        <v>100.0069265076327</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="J46" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="K46" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="L46" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="M46" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="N46" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="O46" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="P46" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="R46" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="S46" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="T46" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="U46" t="n">
-        <v>93.41468141935661</v>
+        <v>93.41468141935668</v>
       </c>
       <c r="V46" t="n">
-        <v>84.23205637861744</v>
+        <v>84.23205637861749</v>
       </c>
       <c r="W46" t="n">
         <v>29.39115668647887</v>
@@ -7849,7 +7849,7 @@
         <v>29.39115668647887</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.39115668647887</v>
+        <v>48.07933083062906</v>
       </c>
     </row>
   </sheetData>
@@ -8778,13 +8778,13 @@
         <v>200.429819980268</v>
       </c>
       <c r="N12" t="n">
-        <v>101.9492706928987</v>
+        <v>142.9779817688206</v>
       </c>
       <c r="O12" t="n">
-        <v>204.4566298243532</v>
+        <v>120.6456351180971</v>
       </c>
       <c r="P12" t="n">
-        <v>161.6820562489068</v>
+        <v>204.464339879241</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,10 +9006,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9774927702312</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>204.1866771242933</v>
+        <v>120.3756824180372</v>
       </c>
       <c r="M15" t="n">
         <v>200.429819980268</v>
@@ -9018,10 +9018,10 @@
         <v>185.7602653991548</v>
       </c>
       <c r="O15" t="n">
-        <v>201.0703270079388</v>
+        <v>161.674346194019</v>
       </c>
       <c r="P15" t="n">
-        <v>120.6533451729849</v>
+        <v>204.464339879241</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>131.9774927702312</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>120.3756824180372</v>
+        <v>204.1866771242933</v>
       </c>
       <c r="M18" t="n">
         <v>200.429819980268</v>
       </c>
       <c r="N18" t="n">
-        <v>182.3739625827405</v>
+        <v>185.7602653991548</v>
       </c>
       <c r="O18" t="n">
-        <v>204.4566298243532</v>
+        <v>120.6456351180971</v>
       </c>
       <c r="P18" t="n">
-        <v>204.464339879241</v>
+        <v>161.6820562489068</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,19 +9483,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>161.4043934939592</v>
+        <v>204.1866771242933</v>
       </c>
       <c r="M21" t="n">
-        <v>200.429819980268</v>
+        <v>157.6475363499337</v>
       </c>
       <c r="N21" t="n">
-        <v>185.7602653991549</v>
+        <v>101.9492706928987</v>
       </c>
       <c r="O21" t="n">
         <v>204.4566298243532</v>
       </c>
       <c r="P21" t="n">
-        <v>120.6533451729849</v>
+        <v>204.464339879241</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9644,7 +9644,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M23" t="n">
-        <v>291.2847697033554</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N23" t="n">
         <v>283.4008070189657</v>
@@ -9720,19 +9720,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>161.4043934939591</v>
+        <v>204.1866771242933</v>
       </c>
       <c r="M24" t="n">
-        <v>200.4298199802679</v>
+        <v>116.6188252740119</v>
       </c>
       <c r="N24" t="n">
-        <v>185.7602653991547</v>
+        <v>185.7602653991548</v>
       </c>
       <c r="O24" t="n">
-        <v>120.6456351180971</v>
+        <v>204.4566298243532</v>
       </c>
       <c r="P24" t="n">
-        <v>204.4643398792409</v>
+        <v>161.6820562489068</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.764737917487</v>
+        <v>85.95374321123089</v>
       </c>
       <c r="C11" t="n">
-        <v>108.2813716507908</v>
+        <v>145.8829949208325</v>
       </c>
       <c r="D11" t="n">
-        <v>49.63866247562483</v>
+        <v>49.63866247562484</v>
       </c>
       <c r="E11" t="n">
         <v>167.1564096012898</v>
       </c>
       <c r="F11" t="n">
-        <v>115.065752473411</v>
+        <v>198.8767471796671</v>
       </c>
       <c r="G11" t="n">
-        <v>130.6925322025592</v>
+        <v>214.5035269088154</v>
       </c>
       <c r="H11" t="n">
         <v>142.5745305714072</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.2191008672286</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>45.82706754482447</v>
       </c>
       <c r="V11" t="n">
-        <v>116.5572811488057</v>
+        <v>42.73655701153533</v>
       </c>
       <c r="W11" t="n">
-        <v>133.5739613654206</v>
+        <v>49.76296665916445</v>
       </c>
       <c r="X11" t="n">
         <v>155.4602118343598</v>
@@ -23498,22 +23498,22 @@
         <v>145.8829949208325</v>
       </c>
       <c r="D14" t="n">
-        <v>133.449657181881</v>
+        <v>49.63866247562481</v>
       </c>
       <c r="E14" t="n">
         <v>167.1564096012898</v>
       </c>
       <c r="F14" t="n">
-        <v>143.1462434013812</v>
+        <v>198.8767471796671</v>
       </c>
       <c r="G14" t="n">
-        <v>130.6925322025592</v>
+        <v>214.5035269088154</v>
       </c>
       <c r="H14" t="n">
-        <v>142.5745305714072</v>
+        <v>58.76353586515108</v>
       </c>
       <c r="I14" t="n">
-        <v>36.2191008672286</v>
+        <v>36.21910086722858</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.91776996152066</v>
+        <v>22.91776996152063</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.09022035898429</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82706754482447</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>116.5572811488057</v>
+        <v>32.74628644254955</v>
       </c>
       <c r="W14" t="n">
-        <v>133.5739613654206</v>
+        <v>105.5803047729746</v>
       </c>
       <c r="X14" t="n">
-        <v>71.64921712810367</v>
+        <v>155.4602118343598</v>
       </c>
       <c r="Y14" t="n">
-        <v>94.15207025184743</v>
+        <v>177.9630649581035</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5227626820733432</v>
+        <v>0.5227626820733148</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.177209922732885</v>
+        <v>2.177209922732857</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-2.069098699748375e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>66144.89963823446</v>
       </c>
       <c r="C2" t="n">
-        <v>66144.89963823445</v>
+        <v>66144.89963823448</v>
       </c>
       <c r="D2" t="n">
-        <v>66144.89963823445</v>
+        <v>66144.89963823446</v>
       </c>
       <c r="E2" t="n">
-        <v>56999.25667653596</v>
+        <v>56999.25667653592</v>
       </c>
       <c r="F2" t="n">
         <v>56999.25667653592</v>
       </c>
       <c r="G2" t="n">
-        <v>66278.89116439015</v>
+        <v>66278.89116439017</v>
       </c>
       <c r="H2" t="n">
         <v>66278.89116439015</v>
       </c>
       <c r="I2" t="n">
-        <v>66278.89116439014</v>
+        <v>66278.89116439018</v>
       </c>
       <c r="J2" t="n">
+        <v>66278.8911643902</v>
+      </c>
+      <c r="K2" t="n">
+        <v>66278.89116439021</v>
+      </c>
+      <c r="L2" t="n">
+        <v>66278.89116439027</v>
+      </c>
+      <c r="M2" t="n">
+        <v>66278.89116439017</v>
+      </c>
+      <c r="N2" t="n">
         <v>66278.89116439022</v>
-      </c>
-      <c r="K2" t="n">
-        <v>66278.89116439022</v>
-      </c>
-      <c r="L2" t="n">
-        <v>66278.89116439025</v>
-      </c>
-      <c r="M2" t="n">
-        <v>66278.89116439018</v>
-      </c>
-      <c r="N2" t="n">
-        <v>66278.89116439018</v>
       </c>
       <c r="O2" t="n">
         <v>66278.89116439017</v>
       </c>
       <c r="P2" t="n">
-        <v>66278.89116439017</v>
+        <v>66278.89116439018</v>
       </c>
     </row>
     <row r="3">
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65157.75460447233</v>
+        <v>65157.75460447237</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26448,7 +26448,7 @@
         <v>459727.7067886267</v>
       </c>
       <c r="M4" t="n">
-        <v>459351.4258455442</v>
+        <v>459351.4258455441</v>
       </c>
       <c r="N4" t="n">
         <v>459351.4258455441</v>
@@ -26500,10 +26500,10 @@
         <v>47597.82369096752</v>
       </c>
       <c r="M5" t="n">
-        <v>44450.48236019507</v>
+        <v>44450.48236019508</v>
       </c>
       <c r="N5" t="n">
-        <v>44450.48236019507</v>
+        <v>44450.48236019506</v>
       </c>
       <c r="O5" t="n">
         <v>44450.48236019508</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-461178.8732329008</v>
+        <v>-461183.339617106</v>
       </c>
       <c r="C6" t="n">
-        <v>-461178.8732329008</v>
+        <v>-461183.339617106</v>
       </c>
       <c r="D6" t="n">
-        <v>-461178.8732329008</v>
+        <v>-461183.339617106</v>
       </c>
       <c r="E6" t="n">
-        <v>-627988.1234020283</v>
+        <v>-628297.4445516235</v>
       </c>
       <c r="F6" t="n">
-        <v>-355797.7541654373</v>
+        <v>-356107.0753150324</v>
       </c>
       <c r="G6" t="n">
         <v>-533209.6079959017</v>
@@ -26540,22 +26540,22 @@
         <v>-428093.4372612437</v>
       </c>
       <c r="I6" t="n">
-        <v>-428093.4372612437</v>
+        <v>-428093.4372612436</v>
       </c>
       <c r="J6" t="n">
         <v>-602329.6414206398</v>
       </c>
       <c r="K6" t="n">
-        <v>-441046.639315204</v>
+        <v>-441046.6393152041</v>
       </c>
       <c r="L6" t="n">
-        <v>-546162.8100498621</v>
+        <v>-546162.810049862</v>
       </c>
       <c r="M6" t="n">
-        <v>-456063.6648175132</v>
+        <v>-456063.6648175131</v>
       </c>
       <c r="N6" t="n">
-        <v>-437523.017041349</v>
+        <v>-437523.0170413489</v>
       </c>
       <c r="O6" t="n">
         <v>-502680.7716458215</v>
@@ -26695,7 +26695,7 @@
         <v>204.3225024603463</v>
       </c>
       <c r="F2" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="G2" t="n">
         <v>335.7177158786689</v>
@@ -26719,7 +26719,7 @@
         <v>236.0182163941181</v>
       </c>
       <c r="N2" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="O2" t="n">
         <v>236.0182163941181</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="F4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="G4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="H4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="I4" t="n">
-        <v>83.81099470625603</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2004532872419</v>
+        <v>451.200453287242</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2004532872419</v>
+        <v>451.200453287242</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2004532872419</v>
+        <v>451.200453287242</v>
       </c>
       <c r="M4" t="n">
-        <v>367.3894585809858</v>
+        <v>367.3894585809859</v>
       </c>
       <c r="N4" t="n">
-        <v>367.3894585809858</v>
+        <v>367.3894585809859</v>
       </c>
       <c r="O4" t="n">
-        <v>367.3894585809858</v>
+        <v>367.3894585809859</v>
       </c>
       <c r="P4" t="n">
-        <v>367.3894585809858</v>
+        <v>367.3894585809859</v>
       </c>
     </row>
   </sheetData>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.44719325559041</v>
+        <v>81.44719325559046</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,10 +28111,10 @@
         <v>204.3225024603463</v>
       </c>
       <c r="J11" t="n">
-        <v>75.75094664689101</v>
+        <v>159.5619413531471</v>
       </c>
       <c r="K11" t="n">
-        <v>5.182481516300321</v>
+        <v>5.182481516300328</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,19 +28123,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5.555402016273121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.258617037889735</v>
       </c>
       <c r="P11" t="n">
-        <v>13.34570842819042</v>
+        <v>13.34570842819043</v>
       </c>
       <c r="Q11" t="n">
-        <v>156.7108032017968</v>
+        <v>88.40036555627081</v>
       </c>
       <c r="R11" t="n">
-        <v>204.3225024603463</v>
+        <v>194.1187303779996</v>
       </c>
       <c r="S11" t="n">
         <v>204.3225024603463</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120.4025292383221</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28187,10 +28187,10 @@
         <v>125.6727734256474</v>
       </c>
       <c r="I12" t="n">
-        <v>107.1397061627909</v>
+        <v>23.32871145653483</v>
       </c>
       <c r="J12" t="n">
-        <v>51.8613090122909</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,16 +28211,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.040069060206879</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3163923318781</v>
+        <v>73.20181472555323</v>
       </c>
       <c r="S12" t="n">
         <v>191.47010505155</v>
       </c>
       <c r="T12" t="n">
-        <v>131.1337398364928</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="U12" t="n">
         <v>204.3225024603463</v>
@@ -28229,7 +28229,7 @@
         <v>204.3225024603463</v>
       </c>
       <c r="W12" t="n">
-        <v>182.8935888707555</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="X12" t="n">
         <v>204.3225024603463</v>
@@ -28254,16 +28254,16 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>203.7923129454039</v>
       </c>
       <c r="G13" t="n">
-        <v>204.3225024603463</v>
+        <v>168.6953277291724</v>
       </c>
       <c r="H13" t="n">
-        <v>173.8495896502743</v>
+        <v>165.7759671126257</v>
       </c>
       <c r="I13" t="n">
         <v>164.6891559687103</v>
@@ -28272,7 +28272,7 @@
         <v>119.854490685719</v>
       </c>
       <c r="K13" t="n">
-        <v>150.2081094801268</v>
+        <v>66.39711477387068</v>
       </c>
       <c r="L13" t="n">
         <v>31.34196646848939</v>
@@ -28281,10 +28281,10 @@
         <v>108.1739870617849</v>
       </c>
       <c r="N13" t="n">
-        <v>15.68658751838778</v>
+        <v>99.49758222464388</v>
       </c>
       <c r="O13" t="n">
-        <v>120.5199420295427</v>
+        <v>36.70894732328662</v>
       </c>
       <c r="P13" t="n">
         <v>57.81978506455185</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="C14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="D14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="E14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="F14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="G14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="H14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="I14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="J14" t="n">
-        <v>75.75094664689101</v>
+        <v>75.75094664689102</v>
       </c>
       <c r="K14" t="n">
-        <v>5.182481516300321</v>
+        <v>5.182481516300328</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.258617037889735</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>47.19863814979024</v>
       </c>
       <c r="P14" t="n">
-        <v>97.15670313444656</v>
+        <v>40.01290994019931</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.4003655562708</v>
+        <v>88.40036555627081</v>
       </c>
       <c r="R14" t="n">
-        <v>194.1187303779996</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="S14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="U14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="V14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="W14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="X14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
     </row>
     <row r="15">
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>120.4230548115871</v>
+        <v>114.3829857513801</v>
       </c>
       <c r="H15" t="n">
         <v>125.6727734256474</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R15" t="n">
         <v>134.3163923318781</v>
@@ -28457,19 +28457,19 @@
         <v>191.47010505155</v>
       </c>
       <c r="T15" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="U15" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="V15" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="W15" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="X15" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="Y15" t="n">
         <v>139.5732914277695</v>
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204.3225024603463</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28497,16 +28497,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>171.8151503515165</v>
+        <v>168.6953277291724</v>
       </c>
       <c r="H16" t="n">
-        <v>204.3225024603463</v>
+        <v>165.7759671126257</v>
       </c>
       <c r="I16" t="n">
         <v>164.6891559687103</v>
       </c>
       <c r="J16" t="n">
-        <v>203.6654853919751</v>
+        <v>188.2264304511618</v>
       </c>
       <c r="K16" t="n">
         <v>66.39711477387068</v>
@@ -28518,13 +28518,13 @@
         <v>24.36299235552877</v>
       </c>
       <c r="N16" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838779</v>
       </c>
       <c r="O16" t="n">
         <v>36.70894732328662</v>
       </c>
       <c r="P16" t="n">
-        <v>57.81978506455185</v>
+        <v>141.630779770808</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7608574128319</v>
@@ -28533,25 +28533,25 @@
         <v>203.1850353264581</v>
       </c>
       <c r="S16" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="T16" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="U16" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="V16" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="W16" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="X16" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603464</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>335.7177158786689</v>
       </c>
       <c r="I17" t="n">
-        <v>319.0558130554477</v>
+        <v>240.5416033275749</v>
       </c>
       <c r="J17" t="n">
-        <v>75.75094664689101</v>
+        <v>159.5619413531471</v>
       </c>
       <c r="K17" t="n">
-        <v>5.182481516300321</v>
+        <v>5.182481516300328</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,16 +28597,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>5.555402016273121</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.34570842819042</v>
+        <v>13.34570842819043</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.4003655562708</v>
+        <v>88.40036555627081</v>
       </c>
       <c r="R17" t="n">
         <v>194.1187303779996</v>
@@ -28621,7 +28621,7 @@
         <v>250.1495700051708</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>321.1384006470417</v>
       </c>
       <c r="W17" t="n">
         <v>335.7177158786689</v>
@@ -28643,16 +28643,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>103.7071568181098</v>
       </c>
       <c r="D18" t="n">
-        <v>75.36132037032242</v>
+        <v>75.36132037032243</v>
       </c>
       <c r="E18" t="n">
-        <v>149.8681567148202</v>
+        <v>88.01657713354356</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>136.8640239949489</v>
       </c>
       <c r="G18" t="n">
         <v>148.7381070793004</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R18" t="n">
         <v>134.3163923318781</v>
@@ -28697,10 +28697,10 @@
         <v>214.9447345427489</v>
       </c>
       <c r="U18" t="n">
-        <v>153.4166473304136</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V18" t="n">
-        <v>156.8379262091461</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28755,7 +28755,7 @@
         <v>24.36299235552877</v>
       </c>
       <c r="N19" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838779</v>
       </c>
       <c r="O19" t="n">
         <v>36.70894732328662</v>
@@ -28819,16 +28819,16 @@
         <v>335.7177158786689</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5416033275749</v>
+        <v>240.8002203654647</v>
       </c>
       <c r="J20" t="n">
-        <v>75.75094664689101</v>
+        <v>75.75094664689102</v>
       </c>
       <c r="K20" t="n">
-        <v>5.182481516300321</v>
+        <v>5.182481516300328</v>
       </c>
       <c r="L20" t="n">
-        <v>34.70187439449687</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.34570842819042</v>
+        <v>13.34570842819043</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.4003655562708</v>
+        <v>88.40036555627081</v>
       </c>
       <c r="R20" t="n">
         <v>194.1187303779996</v>
@@ -28852,13 +28852,13 @@
         <v>227.240272421867</v>
       </c>
       <c r="T20" t="n">
-        <v>256.9425278994627</v>
+        <v>306.2237175255868</v>
       </c>
       <c r="U20" t="n">
         <v>250.1495700051708</v>
       </c>
       <c r="V20" t="n">
-        <v>335.7177158786689</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>335.7177158786689</v>
@@ -28886,22 +28886,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>98.00684770252926</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>64.92711237304424</v>
+        <v>148.7381070793004</v>
       </c>
       <c r="H21" t="n">
         <v>125.6727734256474</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1397061627909</v>
+        <v>23.32871145653483</v>
       </c>
       <c r="J21" t="n">
-        <v>51.8613090122909</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3163923318781</v>
+        <v>50.50539762562201</v>
       </c>
       <c r="S21" t="n">
         <v>191.47010505155</v>
@@ -28934,7 +28934,7 @@
         <v>214.9447345427489</v>
       </c>
       <c r="U21" t="n">
-        <v>153.4166473304136</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>133.5019197332145</v>
       </c>
       <c r="Y21" t="n">
-        <v>139.5732914277695</v>
+        <v>149.5635619967553</v>
       </c>
     </row>
     <row r="22">
@@ -28992,7 +28992,7 @@
         <v>24.36299235552877</v>
       </c>
       <c r="N22" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838779</v>
       </c>
       <c r="O22" t="n">
         <v>36.70894732328662</v>
@@ -29056,13 +29056,13 @@
         <v>335.7177158786689</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5416033275749</v>
+        <v>324.352598033831</v>
       </c>
       <c r="J23" t="n">
-        <v>75.75094664689101</v>
+        <v>75.75094664689102</v>
       </c>
       <c r="K23" t="n">
-        <v>5.182481516300321</v>
+        <v>5.182481516300328</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,19 +29074,19 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2586170378895645</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.34570842819042</v>
+        <v>13.34570842819043</v>
       </c>
       <c r="Q23" t="n">
-        <v>172.2113602625268</v>
+        <v>88.40036555627081</v>
       </c>
       <c r="R23" t="n">
         <v>194.1187303779996</v>
       </c>
       <c r="S23" t="n">
-        <v>227.240272421867</v>
+        <v>227.4988894597561</v>
       </c>
       <c r="T23" t="n">
         <v>222.4127228193306</v>
@@ -29117,19 +29117,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>113.6974273870956</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>75.36132037032243</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>88.01657713354356</v>
       </c>
       <c r="F24" t="n">
-        <v>75.01244441367231</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7381070793004</v>
+        <v>64.92711237304425</v>
       </c>
       <c r="H24" t="n">
         <v>125.6727734256474</v>
@@ -29138,7 +29138,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J24" t="n">
-        <v>51.8613090122909</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R24" t="n">
         <v>134.3163923318781</v>
@@ -29171,13 +29171,13 @@
         <v>214.9447345427489</v>
       </c>
       <c r="U24" t="n">
-        <v>153.4166473304137</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V24" t="n">
-        <v>166.828196778132</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>182.8935888707556</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29229,7 +29229,7 @@
         <v>24.36299235552877</v>
       </c>
       <c r="N25" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838779</v>
       </c>
       <c r="O25" t="n">
         <v>36.70894732328662</v>
@@ -29299,7 +29299,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8424066739123</v>
+        <v>212.842406673913</v>
       </c>
       <c r="L26" t="n">
         <v>212.842406673913</v>
@@ -29351,31 +29351,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>48.20644707144027</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7381070793004</v>
+        <v>138.1802400940436</v>
       </c>
       <c r="H27" t="n">
         <v>125.6727734256474</v>
       </c>
       <c r="I27" t="n">
-        <v>107.1397061627909</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.8613090122909</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -29417,7 +29417,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Y27" t="n">
         <v>212.842406673913</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>212.842406673913</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29451,13 +29451,13 @@
         <v>165.7759671126257</v>
       </c>
       <c r="I28" t="n">
-        <v>164.6891559687103</v>
+        <v>201.8220019165476</v>
       </c>
       <c r="J28" t="n">
         <v>119.854490685719</v>
       </c>
       <c r="K28" t="n">
-        <v>148.4128180781078</v>
+        <v>66.39711477387068</v>
       </c>
       <c r="L28" t="n">
         <v>31.34196646848939</v>
@@ -29466,7 +29466,7 @@
         <v>24.36299235552877</v>
       </c>
       <c r="N28" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838779</v>
       </c>
       <c r="O28" t="n">
         <v>36.70894732328662</v>
@@ -29478,7 +29478,7 @@
         <v>126.7608574128319</v>
       </c>
       <c r="R28" t="n">
-        <v>203.1850353264581</v>
+        <v>212.842406673913</v>
       </c>
       <c r="S28" t="n">
         <v>212.842406673913</v>
@@ -29551,10 +29551,10 @@
         <v>212.842406673913</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8424066739128</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739131</v>
       </c>
       <c r="R29" t="n">
         <v>212.842406673913</v>
@@ -29600,19 +29600,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7381070793004</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6727734256474</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>107.1397061627909</v>
       </c>
       <c r="J30" t="n">
-        <v>51.8613090122909</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,13 +29633,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.040069060206879</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3163923318781</v>
+        <v>54.68122821526968</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T30" t="n">
         <v>212.842406673913</v>
@@ -29651,13 +29651,13 @@
         <v>212.842406673913</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>212.842406673913</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Y30" t="n">
-        <v>195.1221636646938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>212.842406673913</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29685,7 +29685,7 @@
         <v>168.6953277291724</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7759671126257</v>
+        <v>212.842406673913</v>
       </c>
       <c r="I31" t="n">
         <v>164.6891559687103</v>
@@ -29697,19 +29697,19 @@
         <v>66.39711477387068</v>
       </c>
       <c r="L31" t="n">
-        <v>200.7205349588853</v>
+        <v>31.34196646848939</v>
       </c>
       <c r="M31" t="n">
         <v>24.36299235552877</v>
       </c>
       <c r="N31" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838779</v>
       </c>
       <c r="O31" t="n">
-        <v>36.70894732328662</v>
+        <v>212.842406673913</v>
       </c>
       <c r="P31" t="n">
-        <v>57.81978506455185</v>
+        <v>71.65821106623645</v>
       </c>
       <c r="Q31" t="n">
         <v>126.7608574128319</v>
@@ -29831,10 +29831,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>20.19405975307492</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29843,13 +29843,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.6727734256474</v>
+        <v>52.81938943082156</v>
       </c>
       <c r="I33" t="n">
-        <v>107.1397061627909</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.8613090122909</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -29885,7 +29885,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.842406673913</v>
       </c>
       <c r="W33" t="n">
         <v>212.842406673913</v>
@@ -29907,25 +29907,25 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>169.4497937341903</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>212.842406673913</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>212.842406673913</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
+        <v>168.6953277291724</v>
+      </c>
+      <c r="H34" t="n">
         <v>212.842406673913</v>
       </c>
-      <c r="H34" t="n">
-        <v>165.7759671126257</v>
-      </c>
       <c r="I34" t="n">
-        <v>164.6891559687103</v>
+        <v>212.842406673913</v>
       </c>
       <c r="J34" t="n">
         <v>119.854490685719</v>
@@ -29934,16 +29934,16 @@
         <v>66.39711477387068</v>
       </c>
       <c r="L34" t="n">
-        <v>212.842406673913</v>
+        <v>31.34196646848939</v>
       </c>
       <c r="M34" t="n">
         <v>24.36299235552877</v>
       </c>
       <c r="N34" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838779</v>
       </c>
       <c r="O34" t="n">
-        <v>48.09975308672065</v>
+        <v>36.70894732328662</v>
       </c>
       <c r="P34" t="n">
         <v>57.81978506455185</v>
@@ -30007,16 +30007,16 @@
         <v>236.0182163941181</v>
       </c>
       <c r="J35" t="n">
+        <v>140.0487666285595</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5.182481516300328</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
         <v>236.0182163941181</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5.182481516300321</v>
-      </c>
-      <c r="L35" t="n">
-        <v>236.0182163941181</v>
-      </c>
-      <c r="M35" t="n">
-        <v>65.25389464707568</v>
       </c>
       <c r="N35" t="n">
         <v>236.0182163941181</v>
@@ -30028,7 +30028,7 @@
         <v>236.0182163941181</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.4003655562708</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="R35" t="n">
         <v>236.0182163941181</v>
@@ -30037,7 +30037,7 @@
         <v>236.0182163941181</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4127228193306</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="U35" t="n">
         <v>236.0182163941181</v>
@@ -30071,22 +30071,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>56.64102257790262</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>148.7381070793004</v>
       </c>
       <c r="H36" t="n">
-        <v>125.6727734256474</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>107.1397061627909</v>
       </c>
       <c r="J36" t="n">
-        <v>51.8613090122909</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3163923318781</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.47010505155</v>
@@ -30119,19 +30119,19 @@
         <v>214.9447345427489</v>
       </c>
       <c r="U36" t="n">
-        <v>167.4616338431178</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V36" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30156,13 +30156,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.6953277291724</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="H37" t="n">
         <v>165.7759671126257</v>
       </c>
       <c r="I37" t="n">
-        <v>164.6891559687103</v>
+        <v>182.9101221917282</v>
       </c>
       <c r="J37" t="n">
         <v>119.854490685719</v>
@@ -30171,13 +30171,13 @@
         <v>66.39711477387068</v>
       </c>
       <c r="L37" t="n">
-        <v>149.719002424113</v>
+        <v>31.34196646848939</v>
       </c>
       <c r="M37" t="n">
         <v>24.36299235552877</v>
       </c>
       <c r="N37" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838779</v>
       </c>
       <c r="O37" t="n">
         <v>36.70894732328662</v>
@@ -30189,7 +30189,7 @@
         <v>126.7608574128319</v>
       </c>
       <c r="R37" t="n">
-        <v>203.1850353264581</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="S37" t="n">
         <v>235.3431145613827</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="C38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="D38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="E38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="F38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="G38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="H38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="I38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="J38" t="n">
-        <v>75.75094664689101</v>
+        <v>236.018216394118</v>
       </c>
       <c r="K38" t="n">
-        <v>5.182481516300321</v>
+        <v>236.018216394118</v>
       </c>
       <c r="L38" t="n">
-        <v>211.9156708195154</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="N38" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="P38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.4003655562708</v>
+        <v>145.2312481448603</v>
       </c>
       <c r="R38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="S38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="T38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="U38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="V38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="W38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="X38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
     </row>
     <row r="39">
@@ -30305,25 +30305,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7381070793004</v>
       </c>
       <c r="H39" t="n">
         <v>125.6727734256474</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1397061627909</v>
+        <v>9.762118867259133</v>
       </c>
       <c r="J39" t="n">
-        <v>51.8613090122909</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3163923318781</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>191.47010505155</v>
@@ -30356,19 +30356,19 @@
         <v>214.9447345427489</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>236.018216394118</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>236.018216394118</v>
       </c>
       <c r="W39" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>128.6815893980524</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>210.5661352093087</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -30399,7 +30399,7 @@
         <v>165.7759671126257</v>
       </c>
       <c r="I40" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="J40" t="n">
         <v>119.854490685719</v>
@@ -30414,13 +30414,13 @@
         <v>24.36299235552877</v>
       </c>
       <c r="N40" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838779</v>
       </c>
       <c r="O40" t="n">
         <v>36.70894732328662</v>
       </c>
       <c r="P40" t="n">
-        <v>104.8677605947676</v>
+        <v>57.81978506455185</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7608574128319</v>
@@ -30435,16 +30435,16 @@
         <v>223.7382840589537</v>
       </c>
       <c r="U40" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="V40" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="W40" t="n">
-        <v>236.0182163941181</v>
+        <v>236.018216394118</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>236.018216394118</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30481,7 +30481,7 @@
         <v>236.0182163941181</v>
       </c>
       <c r="J41" t="n">
-        <v>75.75094664689101</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="K41" t="n">
         <v>236.0182163941181</v>
@@ -30490,19 +30490,19 @@
         <v>236.0182163941181</v>
       </c>
       <c r="M41" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="P41" t="n">
-        <v>78.25824547021925</v>
+        <v>13.34570842819043</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.0182163941181</v>
+        <v>154.2689772637079</v>
       </c>
       <c r="R41" t="n">
         <v>236.0182163941181</v>
@@ -30511,7 +30511,7 @@
         <v>227.240272421867</v>
       </c>
       <c r="T41" t="n">
-        <v>236.0182163941181</v>
+        <v>222.4127228193306</v>
       </c>
       <c r="U41" t="n">
         <v>236.0182163941181</v>
@@ -30551,7 +30551,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7381070793004</v>
       </c>
       <c r="H42" t="n">
         <v>125.6727734256474</v>
@@ -30560,7 +30560,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.8613090122909</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,19 +30581,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R42" t="n">
         <v>134.3163923318781</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>49.12893833886042</v>
       </c>
       <c r="T42" t="n">
         <v>214.9447345427489</v>
       </c>
       <c r="U42" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>185.2331151580682</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30618,7 +30618,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>213.9168658133681</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
@@ -30633,7 +30633,7 @@
         <v>168.6953277291724</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7759671126257</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="I43" t="n">
         <v>164.6891559687103</v>
@@ -30648,10 +30648,10 @@
         <v>31.34196646848939</v>
       </c>
       <c r="M43" t="n">
-        <v>142.7400283111523</v>
+        <v>24.36299235552877</v>
       </c>
       <c r="N43" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838779</v>
       </c>
       <c r="O43" t="n">
         <v>36.70894732328662</v>
@@ -30666,7 +30666,7 @@
         <v>203.1850353264581</v>
       </c>
       <c r="S43" t="n">
-        <v>235.3431145613827</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="T43" t="n">
         <v>223.7382840589537</v>
@@ -30721,13 +30721,13 @@
         <v>236.0182163941181</v>
       </c>
       <c r="K44" t="n">
-        <v>187.1307341609777</v>
+        <v>5.182481516300328</v>
       </c>
       <c r="L44" t="n">
+        <v>140.0487666285595</v>
+      </c>
+      <c r="M44" t="n">
         <v>236.0182163941181</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>236.0182163941181</v>
@@ -30742,7 +30742,7 @@
         <v>236.0182163941181</v>
       </c>
       <c r="R44" t="n">
-        <v>194.1187303779996</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="S44" t="n">
         <v>236.0182163941181</v>
@@ -30773,22 +30773,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>161.8240560636114</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>20.38501891105287</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7381070793004</v>
       </c>
       <c r="H45" t="n">
         <v>125.6727734256474</v>
@@ -30797,7 +30797,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J45" t="n">
-        <v>51.8613090122909</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,10 +30818,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S45" t="n">
         <v>191.47010505155</v>
@@ -30836,13 +30836,13 @@
         <v>236.0182163941181</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30867,16 +30867,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6953277291724</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7759671126257</v>
+        <v>197.953170823354</v>
       </c>
       <c r="I46" t="n">
-        <v>236.0182163941181</v>
+        <v>164.6891559687103</v>
       </c>
       <c r="J46" t="n">
-        <v>166.9024662159346</v>
+        <v>119.854490685719</v>
       </c>
       <c r="K46" t="n">
         <v>66.39711477387068</v>
@@ -30888,7 +30888,7 @@
         <v>24.36299235552877</v>
       </c>
       <c r="N46" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838779</v>
       </c>
       <c r="O46" t="n">
         <v>36.70894732328662</v>
@@ -30921,7 +30921,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.1412728141684</v>
+        <v>236.0182163941181</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500056</v>
       </c>
       <c r="H11" t="n">
         <v>4.289677887014872</v>
@@ -31759,25 +31759,25 @@
         <v>16.14820522291136</v>
       </c>
       <c r="J11" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28090941246121</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L11" t="n">
         <v>66.09967954645182</v>
       </c>
       <c r="M11" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017335</v>
       </c>
       <c r="N11" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885819</v>
       </c>
       <c r="O11" t="n">
         <v>70.5736570326647</v>
       </c>
       <c r="P11" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q11" t="n">
         <v>45.23246214293933</v>
@@ -31786,7 +31786,7 @@
         <v>26.31138567754894</v>
       </c>
       <c r="S11" t="n">
-        <v>9.544834356192014</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T11" t="n">
         <v>1.833571580657401</v>
@@ -31835,7 +31835,7 @@
         <v>2.164443497249313</v>
       </c>
       <c r="I12" t="n">
-        <v>7.716113284926026</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J12" t="n">
         <v>21.17360462045752</v>
@@ -31844,19 +31844,19 @@
         <v>36.18906277848681</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M12" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N12" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O12" t="n">
         <v>53.3217831041251</v>
       </c>
       <c r="P12" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q12" t="n">
         <v>28.60761287190918</v>
@@ -31865,13 +31865,13 @@
         <v>13.91456046642202</v>
       </c>
       <c r="S12" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390024</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01474416551259751</v>
+        <v>0.0147441655125975</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31926,10 +31926,10 @@
         <v>27.93373199569406</v>
       </c>
       <c r="M13" t="n">
-        <v>29.45220379122861</v>
+        <v>29.4522037912286</v>
       </c>
       <c r="N13" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O13" t="n">
         <v>26.55702978286972</v>
@@ -31941,13 +31941,13 @@
         <v>15.73300754630904</v>
       </c>
       <c r="R13" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718647</v>
       </c>
       <c r="S13" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427142</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024840356941204</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500056</v>
       </c>
       <c r="H14" t="n">
         <v>4.289677887014872</v>
@@ -31996,25 +31996,25 @@
         <v>16.14820522291136</v>
       </c>
       <c r="J14" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28090941246121</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L14" t="n">
         <v>66.09967954645182</v>
       </c>
       <c r="M14" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017335</v>
       </c>
       <c r="N14" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885819</v>
       </c>
       <c r="O14" t="n">
         <v>70.5736570326647</v>
       </c>
       <c r="P14" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q14" t="n">
         <v>45.23246214293933</v>
@@ -32023,7 +32023,7 @@
         <v>26.31138567754894</v>
       </c>
       <c r="S14" t="n">
-        <v>9.544834356192014</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T14" t="n">
         <v>1.833571580657401</v>
@@ -32072,7 +32072,7 @@
         <v>2.164443497249313</v>
       </c>
       <c r="I15" t="n">
-        <v>7.716113284926026</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J15" t="n">
         <v>21.17360462045752</v>
@@ -32081,19 +32081,19 @@
         <v>36.18906277848681</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M15" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N15" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O15" t="n">
         <v>53.3217831041251</v>
       </c>
       <c r="P15" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q15" t="n">
         <v>28.60761287190918</v>
@@ -32102,13 +32102,13 @@
         <v>13.91456046642202</v>
       </c>
       <c r="S15" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390024</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01474416551259751</v>
+        <v>0.0147441655125975</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32163,10 +32163,10 @@
         <v>27.93373199569406</v>
       </c>
       <c r="M16" t="n">
-        <v>29.45220379122861</v>
+        <v>29.4522037912286</v>
       </c>
       <c r="N16" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O16" t="n">
         <v>26.55702978286972</v>
@@ -32178,13 +32178,13 @@
         <v>15.73300754630904</v>
       </c>
       <c r="R16" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718647</v>
       </c>
       <c r="S16" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427142</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024840356941204</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500056</v>
       </c>
       <c r="H17" t="n">
         <v>4.289677887014872</v>
@@ -32233,25 +32233,25 @@
         <v>16.14820522291136</v>
       </c>
       <c r="J17" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28090941246121</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L17" t="n">
         <v>66.09967954645182</v>
       </c>
       <c r="M17" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017335</v>
       </c>
       <c r="N17" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885819</v>
       </c>
       <c r="O17" t="n">
         <v>70.5736570326647</v>
       </c>
       <c r="P17" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q17" t="n">
         <v>45.23246214293933</v>
@@ -32260,7 +32260,7 @@
         <v>26.31138567754894</v>
       </c>
       <c r="S17" t="n">
-        <v>9.544834356192014</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T17" t="n">
         <v>1.833571580657401</v>
@@ -32309,7 +32309,7 @@
         <v>2.164443497249313</v>
       </c>
       <c r="I18" t="n">
-        <v>7.716113284926026</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J18" t="n">
         <v>21.17360462045752</v>
@@ -32318,19 +32318,19 @@
         <v>36.18906277848681</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M18" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N18" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O18" t="n">
         <v>53.3217831041251</v>
       </c>
       <c r="P18" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q18" t="n">
         <v>28.60761287190918</v>
@@ -32339,13 +32339,13 @@
         <v>13.91456046642202</v>
       </c>
       <c r="S18" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390024</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01474416551259751</v>
+        <v>0.0147441655125975</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32400,10 +32400,10 @@
         <v>27.93373199569406</v>
       </c>
       <c r="M19" t="n">
-        <v>29.45220379122861</v>
+        <v>29.4522037912286</v>
       </c>
       <c r="N19" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O19" t="n">
         <v>26.55702978286972</v>
@@ -32415,13 +32415,13 @@
         <v>15.73300754630904</v>
       </c>
       <c r="R19" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718647</v>
       </c>
       <c r="S19" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427142</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024840356941204</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500056</v>
       </c>
       <c r="H20" t="n">
         <v>4.289677887014872</v>
@@ -32470,25 +32470,25 @@
         <v>16.14820522291136</v>
       </c>
       <c r="J20" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28090941246121</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L20" t="n">
         <v>66.09967954645182</v>
       </c>
       <c r="M20" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017335</v>
       </c>
       <c r="N20" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885819</v>
       </c>
       <c r="O20" t="n">
         <v>70.5736570326647</v>
       </c>
       <c r="P20" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q20" t="n">
         <v>45.23246214293933</v>
@@ -32497,7 +32497,7 @@
         <v>26.31138567754894</v>
       </c>
       <c r="S20" t="n">
-        <v>9.544834356192014</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T20" t="n">
         <v>1.833571580657401</v>
@@ -32546,7 +32546,7 @@
         <v>2.164443497249313</v>
       </c>
       <c r="I21" t="n">
-        <v>7.716113284926026</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J21" t="n">
         <v>21.17360462045752</v>
@@ -32555,19 +32555,19 @@
         <v>36.18906277848681</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M21" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N21" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O21" t="n">
         <v>53.3217831041251</v>
       </c>
       <c r="P21" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q21" t="n">
         <v>28.60761287190918</v>
@@ -32576,13 +32576,13 @@
         <v>13.91456046642202</v>
       </c>
       <c r="S21" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390024</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01474416551259751</v>
+        <v>0.0147441655125975</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32637,10 +32637,10 @@
         <v>27.93373199569406</v>
       </c>
       <c r="M22" t="n">
-        <v>29.45220379122861</v>
+        <v>29.4522037912286</v>
       </c>
       <c r="N22" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O22" t="n">
         <v>26.55702978286972</v>
@@ -32652,13 +32652,13 @@
         <v>15.73300754630904</v>
       </c>
       <c r="R22" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718647</v>
       </c>
       <c r="S22" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427142</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024840356941204</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500056</v>
       </c>
       <c r="H23" t="n">
         <v>4.289677887014872</v>
@@ -32707,25 +32707,25 @@
         <v>16.14820522291136</v>
       </c>
       <c r="J23" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28090941246121</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L23" t="n">
         <v>66.09967954645182</v>
       </c>
       <c r="M23" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017335</v>
       </c>
       <c r="N23" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885819</v>
       </c>
       <c r="O23" t="n">
         <v>70.5736570326647</v>
       </c>
       <c r="P23" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q23" t="n">
         <v>45.23246214293933</v>
@@ -32734,7 +32734,7 @@
         <v>26.31138567754894</v>
       </c>
       <c r="S23" t="n">
-        <v>9.544834356192014</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T23" t="n">
         <v>1.833571580657401</v>
@@ -32783,7 +32783,7 @@
         <v>2.164443497249313</v>
       </c>
       <c r="I24" t="n">
-        <v>7.716113284926026</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J24" t="n">
         <v>21.17360462045752</v>
@@ -32792,19 +32792,19 @@
         <v>36.18906277848681</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M24" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N24" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O24" t="n">
         <v>53.3217831041251</v>
       </c>
       <c r="P24" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q24" t="n">
         <v>28.60761287190918</v>
@@ -32813,13 +32813,13 @@
         <v>13.91456046642202</v>
       </c>
       <c r="S24" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390024</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01474416551259751</v>
+        <v>0.0147441655125975</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32874,10 +32874,10 @@
         <v>27.93373199569406</v>
       </c>
       <c r="M25" t="n">
-        <v>29.45220379122861</v>
+        <v>29.4522037912286</v>
       </c>
       <c r="N25" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O25" t="n">
         <v>26.55702978286972</v>
@@ -32889,13 +32889,13 @@
         <v>15.73300754630904</v>
       </c>
       <c r="R25" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718647</v>
       </c>
       <c r="S25" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427142</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024840356941204</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500056</v>
       </c>
       <c r="H26" t="n">
         <v>4.289677887014872</v>
@@ -32944,25 +32944,25 @@
         <v>16.14820522291136</v>
       </c>
       <c r="J26" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28090941246121</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L26" t="n">
         <v>66.09967954645182</v>
       </c>
       <c r="M26" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017335</v>
       </c>
       <c r="N26" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885819</v>
       </c>
       <c r="O26" t="n">
         <v>70.5736570326647</v>
       </c>
       <c r="P26" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q26" t="n">
         <v>45.23246214293933</v>
@@ -32971,7 +32971,7 @@
         <v>26.31138567754894</v>
       </c>
       <c r="S26" t="n">
-        <v>9.544834356192014</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T26" t="n">
         <v>1.833571580657401</v>
@@ -33020,7 +33020,7 @@
         <v>2.164443497249313</v>
       </c>
       <c r="I27" t="n">
-        <v>7.716113284926026</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J27" t="n">
         <v>21.17360462045752</v>
@@ -33029,19 +33029,19 @@
         <v>36.18906277848681</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M27" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N27" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O27" t="n">
         <v>53.3217831041251</v>
       </c>
       <c r="P27" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q27" t="n">
         <v>28.60761287190918</v>
@@ -33050,13 +33050,13 @@
         <v>13.91456046642202</v>
       </c>
       <c r="S27" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390024</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01474416551259751</v>
+        <v>0.0147441655125975</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33111,10 +33111,10 @@
         <v>27.93373199569406</v>
       </c>
       <c r="M28" t="n">
-        <v>29.45220379122861</v>
+        <v>29.4522037912286</v>
       </c>
       <c r="N28" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O28" t="n">
         <v>26.55702978286972</v>
@@ -33126,13 +33126,13 @@
         <v>15.73300754630904</v>
       </c>
       <c r="R28" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718647</v>
       </c>
       <c r="S28" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427142</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024840356941204</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500056</v>
       </c>
       <c r="H29" t="n">
         <v>4.289677887014872</v>
@@ -33181,25 +33181,25 @@
         <v>16.14820522291136</v>
       </c>
       <c r="J29" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28090941246121</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L29" t="n">
         <v>66.09967954645182</v>
       </c>
       <c r="M29" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017335</v>
       </c>
       <c r="N29" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885819</v>
       </c>
       <c r="O29" t="n">
         <v>70.5736570326647</v>
       </c>
       <c r="P29" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q29" t="n">
         <v>45.23246214293933</v>
@@ -33208,7 +33208,7 @@
         <v>26.31138567754894</v>
       </c>
       <c r="S29" t="n">
-        <v>9.544834356192014</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T29" t="n">
         <v>1.833571580657401</v>
@@ -33257,7 +33257,7 @@
         <v>2.164443497249313</v>
       </c>
       <c r="I30" t="n">
-        <v>7.716113284926026</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J30" t="n">
         <v>21.17360462045752</v>
@@ -33266,19 +33266,19 @@
         <v>36.18906277848681</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M30" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N30" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O30" t="n">
         <v>53.3217831041251</v>
       </c>
       <c r="P30" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q30" t="n">
         <v>28.60761287190918</v>
@@ -33287,13 +33287,13 @@
         <v>13.91456046642202</v>
       </c>
       <c r="S30" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390024</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01474416551259751</v>
+        <v>0.0147441655125975</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33348,10 +33348,10 @@
         <v>27.93373199569406</v>
       </c>
       <c r="M31" t="n">
-        <v>29.45220379122861</v>
+        <v>29.4522037912286</v>
       </c>
       <c r="N31" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O31" t="n">
         <v>26.55702978286972</v>
@@ -33363,13 +33363,13 @@
         <v>15.73300754630904</v>
       </c>
       <c r="R31" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718647</v>
       </c>
       <c r="S31" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427142</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024840356941204</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500056</v>
       </c>
       <c r="H32" t="n">
         <v>4.289677887014872</v>
@@ -33418,25 +33418,25 @@
         <v>16.14820522291136</v>
       </c>
       <c r="J32" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28090941246121</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L32" t="n">
         <v>66.09967954645182</v>
       </c>
       <c r="M32" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017335</v>
       </c>
       <c r="N32" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885819</v>
       </c>
       <c r="O32" t="n">
         <v>70.5736570326647</v>
       </c>
       <c r="P32" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q32" t="n">
         <v>45.23246214293933</v>
@@ -33445,7 +33445,7 @@
         <v>26.31138567754894</v>
       </c>
       <c r="S32" t="n">
-        <v>9.544834356192014</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T32" t="n">
         <v>1.833571580657401</v>
@@ -33494,7 +33494,7 @@
         <v>2.164443497249313</v>
       </c>
       <c r="I33" t="n">
-        <v>7.716113284926026</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J33" t="n">
         <v>21.17360462045752</v>
@@ -33503,19 +33503,19 @@
         <v>36.18906277848681</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M33" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N33" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O33" t="n">
         <v>53.3217831041251</v>
       </c>
       <c r="P33" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q33" t="n">
         <v>28.60761287190918</v>
@@ -33524,13 +33524,13 @@
         <v>13.91456046642202</v>
       </c>
       <c r="S33" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390024</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01474416551259751</v>
+        <v>0.0147441655125975</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33585,10 +33585,10 @@
         <v>27.93373199569406</v>
       </c>
       <c r="M34" t="n">
-        <v>29.45220379122861</v>
+        <v>29.4522037912286</v>
       </c>
       <c r="N34" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O34" t="n">
         <v>26.55702978286972</v>
@@ -33600,13 +33600,13 @@
         <v>15.73300754630904</v>
       </c>
       <c r="R34" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718647</v>
       </c>
       <c r="S34" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427142</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024840356941204</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500056</v>
       </c>
       <c r="H35" t="n">
         <v>4.289677887014872</v>
@@ -33655,25 +33655,25 @@
         <v>16.14820522291136</v>
       </c>
       <c r="J35" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28090941246121</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L35" t="n">
         <v>66.09967954645182</v>
       </c>
       <c r="M35" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017335</v>
       </c>
       <c r="N35" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885819</v>
       </c>
       <c r="O35" t="n">
         <v>70.5736570326647</v>
       </c>
       <c r="P35" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q35" t="n">
         <v>45.23246214293933</v>
@@ -33682,7 +33682,7 @@
         <v>26.31138567754894</v>
       </c>
       <c r="S35" t="n">
-        <v>9.544834356192014</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T35" t="n">
         <v>1.833571580657401</v>
@@ -33731,7 +33731,7 @@
         <v>2.164443497249313</v>
       </c>
       <c r="I36" t="n">
-        <v>7.716113284926026</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J36" t="n">
         <v>21.17360462045752</v>
@@ -33740,19 +33740,19 @@
         <v>36.18906277848681</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M36" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N36" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O36" t="n">
         <v>53.3217831041251</v>
       </c>
       <c r="P36" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q36" t="n">
         <v>28.60761287190918</v>
@@ -33761,13 +33761,13 @@
         <v>13.91456046642202</v>
       </c>
       <c r="S36" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390024</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01474416551259751</v>
+        <v>0.0147441655125975</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33822,10 +33822,10 @@
         <v>27.93373199569406</v>
       </c>
       <c r="M37" t="n">
-        <v>29.45220379122861</v>
+        <v>29.4522037912286</v>
       </c>
       <c r="N37" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O37" t="n">
         <v>26.55702978286972</v>
@@ -33837,13 +33837,13 @@
         <v>15.73300754630904</v>
       </c>
       <c r="R37" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718647</v>
       </c>
       <c r="S37" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427142</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024840356941204</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500056</v>
       </c>
       <c r="H38" t="n">
         <v>4.289677887014872</v>
@@ -33892,25 +33892,25 @@
         <v>16.14820522291136</v>
       </c>
       <c r="J38" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28090941246121</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L38" t="n">
         <v>66.09967954645182</v>
       </c>
       <c r="M38" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017335</v>
       </c>
       <c r="N38" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885819</v>
       </c>
       <c r="O38" t="n">
         <v>70.5736570326647</v>
       </c>
       <c r="P38" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q38" t="n">
         <v>45.23246214293933</v>
@@ -33919,7 +33919,7 @@
         <v>26.31138567754894</v>
       </c>
       <c r="S38" t="n">
-        <v>9.544834356192014</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T38" t="n">
         <v>1.833571580657401</v>
@@ -33968,7 +33968,7 @@
         <v>2.164443497249313</v>
       </c>
       <c r="I39" t="n">
-        <v>7.716113284926026</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J39" t="n">
         <v>21.17360462045752</v>
@@ -33977,19 +33977,19 @@
         <v>36.18906277848681</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M39" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N39" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O39" t="n">
         <v>53.3217831041251</v>
       </c>
       <c r="P39" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q39" t="n">
         <v>28.60761287190918</v>
@@ -33998,13 +33998,13 @@
         <v>13.91456046642202</v>
       </c>
       <c r="S39" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390024</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01474416551259751</v>
+        <v>0.0147441655125975</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34059,10 +34059,10 @@
         <v>27.93373199569406</v>
       </c>
       <c r="M40" t="n">
-        <v>29.45220379122861</v>
+        <v>29.4522037912286</v>
       </c>
       <c r="N40" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O40" t="n">
         <v>26.55702978286972</v>
@@ -34074,13 +34074,13 @@
         <v>15.73300754630904</v>
       </c>
       <c r="R40" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718647</v>
       </c>
       <c r="S40" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427142</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024840356941204</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500056</v>
       </c>
       <c r="H41" t="n">
         <v>4.289677887014872</v>
@@ -34129,25 +34129,25 @@
         <v>16.14820522291136</v>
       </c>
       <c r="J41" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28090941246121</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L41" t="n">
         <v>66.09967954645182</v>
       </c>
       <c r="M41" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017335</v>
       </c>
       <c r="N41" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885819</v>
       </c>
       <c r="O41" t="n">
         <v>70.5736570326647</v>
       </c>
       <c r="P41" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q41" t="n">
         <v>45.23246214293933</v>
@@ -34156,7 +34156,7 @@
         <v>26.31138567754894</v>
       </c>
       <c r="S41" t="n">
-        <v>9.544834356192014</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T41" t="n">
         <v>1.833571580657401</v>
@@ -34205,7 +34205,7 @@
         <v>2.164443497249313</v>
       </c>
       <c r="I42" t="n">
-        <v>7.716113284926026</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J42" t="n">
         <v>21.17360462045752</v>
@@ -34214,19 +34214,19 @@
         <v>36.18906277848681</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M42" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N42" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O42" t="n">
         <v>53.3217831041251</v>
       </c>
       <c r="P42" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q42" t="n">
         <v>28.60761287190918</v>
@@ -34235,13 +34235,13 @@
         <v>13.91456046642202</v>
       </c>
       <c r="S42" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390024</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01474416551259751</v>
+        <v>0.0147441655125975</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34296,10 +34296,10 @@
         <v>27.93373199569406</v>
       </c>
       <c r="M43" t="n">
-        <v>29.45220379122861</v>
+        <v>29.4522037912286</v>
       </c>
       <c r="N43" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O43" t="n">
         <v>26.55702978286972</v>
@@ -34311,13 +34311,13 @@
         <v>15.73300754630904</v>
       </c>
       <c r="R43" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718647</v>
       </c>
       <c r="S43" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427142</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024840356941204</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500056</v>
       </c>
       <c r="H44" t="n">
         <v>4.289677887014872</v>
@@ -34366,25 +34366,25 @@
         <v>16.14820522291136</v>
       </c>
       <c r="J44" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28090941246121</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L44" t="n">
         <v>66.09967954645182</v>
       </c>
       <c r="M44" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017335</v>
       </c>
       <c r="N44" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885819</v>
       </c>
       <c r="O44" t="n">
         <v>70.5736570326647</v>
       </c>
       <c r="P44" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q44" t="n">
         <v>45.23246214293933</v>
@@ -34393,7 +34393,7 @@
         <v>26.31138567754894</v>
       </c>
       <c r="S44" t="n">
-        <v>9.544834356192014</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T44" t="n">
         <v>1.833571580657401</v>
@@ -34442,7 +34442,7 @@
         <v>2.164443497249313</v>
       </c>
       <c r="I45" t="n">
-        <v>7.716113284926026</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J45" t="n">
         <v>21.17360462045752</v>
@@ -34451,19 +34451,19 @@
         <v>36.18906277848681</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M45" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N45" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O45" t="n">
         <v>53.3217831041251</v>
       </c>
       <c r="P45" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q45" t="n">
         <v>28.60761287190918</v>
@@ -34472,13 +34472,13 @@
         <v>13.91456046642202</v>
       </c>
       <c r="S45" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390024</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01474416551259751</v>
+        <v>0.0147441655125975</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34533,10 +34533,10 @@
         <v>27.93373199569406</v>
       </c>
       <c r="M46" t="n">
-        <v>29.45220379122861</v>
+        <v>29.4522037912286</v>
       </c>
       <c r="N46" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O46" t="n">
         <v>26.55702978286972</v>
@@ -34548,13 +34548,13 @@
         <v>15.73300754630904</v>
       </c>
       <c r="R46" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718647</v>
       </c>
       <c r="S46" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427142</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024840356941204</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35416,22 +35416,22 @@
         <v>49.10912031175926</v>
       </c>
       <c r="M11" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="N11" t="n">
-        <v>83.81099470625612</v>
+        <v>78.25559268998299</v>
       </c>
       <c r="O11" t="n">
-        <v>36.61235655646587</v>
+        <v>36.8709735943556</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.31043764552599</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>10.20377208234672</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L12" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="M12" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>41.02871107592188</v>
       </c>
       <c r="O12" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>41.02871107592194</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35550,16 +35550,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>62.64636124812134</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>64.86543072695726</v>
       </c>
       <c r="G13" t="n">
-        <v>35.62717473117392</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>8.073622537648555</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35568,19 +35568,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="O13" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35653,22 +35653,22 @@
         <v>49.10912031175926</v>
       </c>
       <c r="M14" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="N14" t="n">
-        <v>78.51420972787274</v>
+        <v>78.25559268998299</v>
       </c>
       <c r="O14" t="n">
-        <v>36.61235655646587</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="P14" t="n">
-        <v>83.81099470625612</v>
+        <v>26.66720151200888</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.20377208234675</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L15" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="N15" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="O15" t="n">
-        <v>80.42469188984172</v>
+        <v>41.02871107592188</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,13 +35778,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.70558179537824</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.13985220963562</v>
+        <v>59.13985220963565</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35793,22 +35793,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.11982262234412</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>38.54653534772061</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>83.81099470625612</v>
+        <v>68.37193976544283</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,10 +35878,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>78.51420972787274</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>49.10912031175926</v>
       </c>
       <c r="M17" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="N17" t="n">
-        <v>83.81099470625612</v>
+        <v>78.25559268998299</v>
       </c>
       <c r="O17" t="n">
         <v>36.61235655646587</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>0.2586170378897419</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="M18" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="N18" t="n">
-        <v>80.42469188984174</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="O18" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>83.81099470625612</v>
+        <v>41.02871107592188</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.2586170378897266</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,13 +36124,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>83.81099470625612</v>
+        <v>49.10912031175926</v>
       </c>
       <c r="M20" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="N20" t="n">
-        <v>78.255592689983</v>
+        <v>78.25559268998299</v>
       </c>
       <c r="O20" t="n">
         <v>36.61235655646587</v>
@@ -36148,13 +36148,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.52980508013206</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>14.8379322695169</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L21" t="n">
-        <v>41.02871107592193</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="M21" t="n">
-        <v>83.81099470625612</v>
+        <v>41.02871107592188</v>
       </c>
       <c r="N21" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36364,25 +36364,25 @@
         <v>49.10912031175926</v>
       </c>
       <c r="M23" t="n">
-        <v>83.81099470625603</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="N23" t="n">
-        <v>78.255592689983</v>
+        <v>78.25559268998299</v>
       </c>
       <c r="O23" t="n">
-        <v>36.87097359435543</v>
+        <v>36.61235655646587</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.81099470625603</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.2586170378891103</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L24" t="n">
-        <v>41.02871107592186</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="M24" t="n">
-        <v>83.81099470625603</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>83.81099470625603</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="P24" t="n">
-        <v>83.81099470625603</v>
+        <v>41.02871107592188</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.091460027022</v>
+        <v>137.0914600270219</v>
       </c>
       <c r="K26" t="n">
-        <v>207.659925157612</v>
+        <v>207.6599251576126</v>
       </c>
       <c r="L26" t="n">
         <v>261.9515269856722</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6534013801691</v>
+        <v>296.653401380169</v>
       </c>
       <c r="N26" t="n">
         <v>291.097999363896</v>
@@ -36613,7 +36613,7 @@
         <v>199.4966982457225</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4420411176422</v>
+        <v>124.4420411176421</v>
       </c>
       <c r="R26" t="n">
         <v>18.72367629591335</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L27" t="n">
         <v>119.9288613386043</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.22548600894487</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36747,13 +36747,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>37.13284594783735</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>82.01570330423706</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.657371347454839</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.091460027022</v>
+        <v>137.0914600270219</v>
       </c>
       <c r="K29" t="n">
         <v>207.6599251576126</v>
@@ -36838,7 +36838,7 @@
         <v>261.9515269856722</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6534013801691</v>
+        <v>296.653401380169</v>
       </c>
       <c r="N29" t="n">
         <v>291.097999363896</v>
@@ -36847,10 +36847,10 @@
         <v>249.4547632303788</v>
       </c>
       <c r="P29" t="n">
-        <v>199.4966982457223</v>
+        <v>199.4966982457225</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4420411176422</v>
+        <v>124.4420411176423</v>
       </c>
       <c r="R29" t="n">
         <v>18.72367629591335</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L30" t="n">
         <v>119.9288613386043</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.65975642320225</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36981,7 +36981,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.06643956128725</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>169.3785684903959</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,10 +37002,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.1334593506263</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>13.83842600168459</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.091460027022</v>
+        <v>137.0914600270219</v>
       </c>
       <c r="K32" t="n">
         <v>207.6599251576126</v>
@@ -37075,7 +37075,7 @@
         <v>261.9515269856722</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6534013801691</v>
+        <v>296.653401380169</v>
       </c>
       <c r="N32" t="n">
         <v>291.097999363896</v>
@@ -37087,7 +37087,7 @@
         <v>199.4966982457225</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4420411176422</v>
+        <v>124.4420411176421</v>
       </c>
       <c r="R32" t="n">
         <v>18.72367629591335</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L33" t="n">
         <v>119.9288613386043</v>
@@ -37203,25 +37203,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2.992612762217999</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>67.65975642320225</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.16626546168797</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.14707894474055</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.06643956128725</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.15325070520271</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>181.5004402054236</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>11.39080576343402</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.2672697472271</v>
+        <v>64.29781998166848</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>285.1273367058774</v>
+        <v>49.10912031175926</v>
       </c>
       <c r="M35" t="n">
-        <v>149.0648893533318</v>
+        <v>319.8292111003742</v>
       </c>
       <c r="N35" t="n">
         <v>314.2738090841011</v>
@@ -37324,16 +37324,16 @@
         <v>222.6725079659277</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>147.6178508378473</v>
       </c>
       <c r="R35" t="n">
         <v>41.89948601611849</v>
       </c>
       <c r="S35" t="n">
-        <v>8.77794397225111</v>
+        <v>8.777943972251109</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>13.60549357478745</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L36" t="n">
         <v>119.9288613386043</v>
@@ -37452,13 +37452,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>67.32288866494569</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>18.22096622301795</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>118.3770359556236</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>32.83318106765998</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>160.267269747227</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>230.8357348778177</v>
       </c>
       <c r="L38" t="n">
-        <v>261.0247911312747</v>
+        <v>49.10912031175926</v>
       </c>
       <c r="M38" t="n">
-        <v>319.8292111003742</v>
+        <v>319.8292111003741</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2738090841011</v>
+        <v>78.25559268998299</v>
       </c>
       <c r="O38" t="n">
-        <v>272.630572950584</v>
+        <v>272.6305729505839</v>
       </c>
       <c r="P38" t="n">
-        <v>222.6725079659277</v>
+        <v>222.6725079659276</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>56.83088258858949</v>
       </c>
       <c r="R38" t="n">
-        <v>41.89948601611849</v>
+        <v>41.8994860161184</v>
       </c>
       <c r="S38" t="n">
-        <v>8.77794397225111</v>
+        <v>8.777943972251023</v>
       </c>
       <c r="T38" t="n">
-        <v>13.60549357478745</v>
+        <v>13.60549357478737</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L39" t="n">
         <v>119.9288613386043</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>32.94921454434063</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.32906042540785</v>
+        <v>71.32906042540776</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>47.04797553021579</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>14.09876098587549</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>160.2672697472271</v>
       </c>
       <c r="K41" t="n">
         <v>230.8357348778178</v>
@@ -37786,28 +37786,28 @@
         <v>285.1273367058774</v>
       </c>
       <c r="M41" t="n">
-        <v>319.8292111003743</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="N41" t="n">
         <v>314.2738090841011</v>
       </c>
       <c r="O41" t="n">
-        <v>36.61235655646587</v>
+        <v>272.630572950584</v>
       </c>
       <c r="P41" t="n">
-        <v>64.91253704202883</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.6178508378473</v>
+        <v>65.86861170743704</v>
       </c>
       <c r="R41" t="n">
-        <v>41.89948601611852</v>
+        <v>41.89948601611849</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>13.60549357478748</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L42" t="n">
         <v>119.9288613386043</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>47.45968484139578</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>70.24224928149239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>118.3770359556235</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.6751018327354301</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>160.2672697472271</v>
       </c>
       <c r="K44" t="n">
-        <v>181.9482526446773</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>285.1273367058774</v>
+        <v>189.1578869403187</v>
       </c>
       <c r="M44" t="n">
-        <v>83.81099470625612</v>
+        <v>319.8292111003742</v>
       </c>
       <c r="N44" t="n">
         <v>314.2738090841011</v>
@@ -38038,13 +38038,13 @@
         <v>147.6178508378473</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>41.89948601611849</v>
       </c>
       <c r="S44" t="n">
-        <v>8.777943972251139</v>
+        <v>8.777943972251109</v>
       </c>
       <c r="T44" t="n">
-        <v>13.60549357478748</v>
+        <v>13.60549357478745</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L45" t="n">
         <v>119.9288613386043</v>
@@ -38163,16 +38163,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>67.32288866494569</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>32.17720371072824</v>
       </c>
       <c r="I46" t="n">
-        <v>71.32906042540787</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>47.04797553021567</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38217,7 +38217,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>18.87694357994968</v>
       </c>
     </row>
   </sheetData>
